--- a/Products.xlsx
+++ b/Products.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\WebScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A154F-DB6E-4E20-A349-5DADACF9B5C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2430E2E-67BD-4DBC-B6EE-CFABB56D27F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laptops" sheetId="1" r:id="rId1"/>
     <sheet name="CellPhones" sheetId="2" r:id="rId2"/>
     <sheet name="TVs" sheetId="3" r:id="rId3"/>
+    <sheet name="Joined" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="196">
   <si>
     <t>Laptop Brand</t>
   </si>
@@ -38,9 +39,6 @@
     <t xml:space="preserve">Microsoft </t>
   </si>
   <si>
-    <t xml:space="preserve"> Surface Go 2 con pantalla tÃ¡ctil de 10.5"  Intel Pentium Gold </t>
-  </si>
-  <si>
     <t>Dell</t>
   </si>
   <si>
@@ -56,18 +54,12 @@
     <t xml:space="preserve">Apple </t>
   </si>
   <si>
-    <t xml:space="preserve"> MacBook Air (Ãºltimo modelo) de 13."  Core i3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dell </t>
   </si>
   <si>
     <t xml:space="preserve"> Laptop G3 de 15.6"  NVIDIA GeForce GTX 1650 Ti </t>
   </si>
   <si>
-    <t xml:space="preserve"> Surface Book 3 tÃ¡ctil de 13.5"  Core i5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Acer </t>
   </si>
   <si>
@@ -320,9 +312,6 @@
     <t xml:space="preserve">Nova 3 PAR-LX9 Pantalla 6.3" Camara Dual 24 Mpx 16 Mpx, 128 GB ROM 4GB Ram </t>
   </si>
   <si>
-    <t xml:space="preserve">Funda para iPhone XS y iPhone X, Carcasa Bumper, Shock-AbsorciÃ³n y Anti-AraÃ±azos, Rojo </t>
-  </si>
-  <si>
     <t xml:space="preserve">iPhone 7, 128GB, Silver - Fully unlocked- Desbloqueado(Renewed) </t>
   </si>
   <si>
@@ -332,21 +321,12 @@
     <t xml:space="preserve">E5785Lh-22c (Blanco) 300 Mbps 4G LTE Mobile WiFi (4G LTE en Europa, Asia </t>
   </si>
   <si>
-    <t xml:space="preserve">manualmente Cepillo de Limpieza de Silicona Herramienta cosmÃ©tica Removedor deâ€¦ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smartphone iPhone XS MAX Plata - 256GB - Telcel Prepago </t>
   </si>
   <si>
-    <t xml:space="preserve">Rastreador de Ejercicios, Reloj con podÃ³metro y Pulsera Inteligente a Prueba deâ€¦ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Samsung Galaxy S8 color plata. AT&amp;T pre-pago </t>
   </si>
   <si>
-    <t xml:space="preserve">Galaxy S10 128GB SM-G973 6.1" Dual Sim LTE Libre de Fabrica (Version Internacional)â€¦ </t>
-  </si>
-  <si>
     <t xml:space="preserve">S319 Smartphone Street 1.77", 30 GB, color Negro/Naranja. Telcel/Desbloqueado </t>
   </si>
   <si>
@@ -362,9 +342,6 @@
     <t xml:space="preserve">APP-A2097- MT9E2LZ/A iPhone Xs, Space, Gray 64GB, Liberado </t>
   </si>
   <si>
-    <t xml:space="preserve">e5785lh-22Â C Hotspot WiFi, Negro </t>
-  </si>
-  <si>
     <t xml:space="preserve">SM-G975F Smartphone Galaxy S10 AT&amp;T/Prepago con Bundle Bud, 6.4", Color Azul </t>
   </si>
   <si>
@@ -392,18 +369,12 @@
     <t xml:space="preserve">Apple iPhone 8 plus 64GB color plata. Movistar pre-pago </t>
   </si>
   <si>
-    <t xml:space="preserve">inteligente, rastreador de actividad a prueba de agua Monitor de ritmo cardÃ­aco con monitor deâ€¦ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Galaxy S8 - Smartphone, color Gris Orquidia, Telcel Pre-pago </t>
   </si>
   <si>
     <t xml:space="preserve">Apple iPhone 7 plus 32 GB color negro. Telcel pre-pago </t>
   </si>
   <si>
-    <t xml:space="preserve">4203065 4203065 Tab V7 Pb-6505M 6.9â€ 3Gb 32Gb TelÃ©fono MÃ³vil Dual Sim, Negro </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smartphone U963 Dorado AT&amp;T pre-Pago </t>
   </si>
   <si>
@@ -416,18 +387,9 @@
     <t xml:space="preserve">SM-G9650 Galaxy S9 Plus - Smartphone 64 GB, Octa Core de 2.5GHa, 12 MP, Android 8 Oreo, AT&amp;T/Prepago, Morado, 6.2" </t>
   </si>
   <si>
-    <t xml:space="preserve">A6 Plata 16GB 5.2" FullHD 13 Mpx RAM 2GB RAM 16GB mÃ¡s microSD hasta 128GB </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smartphone iPhone XS Gris Espacial - 512GB - Telcel Prepago </t>
   </si>
   <si>
-    <t xml:space="preserve">Q6 PRIME M700H COLOR GRIS - PANTALLA 5" - CAMARA FRONTAL 5MPX CON GRAN ANGULAR 100Â° Y TRASERA 13MPX - OCTACORE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung Galaxy S8 color negro. VersiÃ³n internacional </t>
-  </si>
-  <si>
     <t xml:space="preserve">SM-G9650 Smartphone Galaxy S9 Plus 6.2", color Negro. AT&amp;T/Prepago </t>
   </si>
   <si>
@@ -443,12 +405,6 @@
     <t xml:space="preserve">Apple iPhone 8 64GB color dorado (AT&amp;T) </t>
   </si>
   <si>
-    <t xml:space="preserve">Galaxy S8 - Smartphone, color Gris Orquidia, VersiÃ³n internacional </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 par de Pendientes de Plata con Gotas de Agua/lÃ¡grima/Gota de Lluvia para Mujeres niÃ±as Accesorios de Boda </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smartphone iPhone XS Plata - 512GB - Telcel Prepago </t>
   </si>
   <si>
@@ -473,9 +429,6 @@
     <t xml:space="preserve">iPhone 6 Dorado 64 GB (Renewed) </t>
   </si>
   <si>
-    <t xml:space="preserve">Galaxy J7 Prime, 32 Gb, 3 Gb Ram, CÃ¡mara de 13 MPX, Lector de huella dactilar,Pantalla brillante 1080p Full HD de 5.5"â€¦ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smartphone Blade L110 Negro AT&amp;T pre-Pago </t>
   </si>
   <si>
@@ -503,9 +456,6 @@
     <t xml:space="preserve">Smartphone iPhone XS MAX Oro - 256GB - Telcel Prepago </t>
   </si>
   <si>
-    <t xml:space="preserve">Smartphone 3G - Pantalla de 5" - 1GB de RAM - 8GB de Memoria - Dual SIM - CÃ¡mara de 2.08mp - Wi-Fi - Bluetooth - Android 6 - Negro </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smartphone Blade A521 Blanco AT&amp;T pre-Pago </t>
   </si>
   <si>
@@ -524,9 +474,6 @@
     <t xml:space="preserve">5 Plus Smartphone 5.9", Color Azul. Telcel/Desbloqueado </t>
   </si>
   <si>
-    <t xml:space="preserve">iPhone 8Â Plus 64 GB dorado </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smartphone iPhone XS Oro - 256GB - Telcel Prepago </t>
   </si>
   <si>
@@ -606,6 +553,69 @@
   </si>
   <si>
     <t xml:space="preserve">5033A Smartphone 5", 8 GB, Color Negro. Telcel/Desbloqueado </t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funda para iPhone XS y iPhone X, Carcasa Bumper, Shock-Absorcion y Anti-Aranazos, Rojo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manualmente Cepillo de Limpieza de Silicona Herramienta cosmetica Removedor de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rastreador de Ejercicios, Reloj con podometro y Pulsera Inteligente a Prueba de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxy S10 128GB SM-G973 6.1" Dual Sim LTE Libre de Fabrica (Version Internacional) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5785lh-22C Hotspot WiFi, Negro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inteligente, rastreador de actividad a prueba de agua Monitor de ritmo cardiaco con monitor de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4203065 4203065 Tab V7 Pb-6505M 6.9 3Gb 32Gb Telefono Movil Dual Sim, Negro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6 Plata 16GB 5.2" FullHD 13 Mpx RAM 2GB RAM 16GB mas microSD hasta 128GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6 PRIME M700H COLOR GRIS - PANTALLA 5" - CAMARA FRONTAL 5MPX CON GRAN ANGULAR 100 Y TRASERA 13MPX - OCTACORE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Galaxy S8 color negro. Version internacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxy S8 - Smartphone, color Gris Orquidia, Version internacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 par de Pendientes de Plata con Gotas de Agua/lagrima/Gota de Lluvia para Mujeres ninas Accesorios de Boda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxy J7 Prime, 32 Gb, 3 Gb Ram, Camara de 13 MPX, Lector de huella dactilar,Pantalla brillante 1080p Full HD de 5.5" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone 3G - Pantalla de 5" - 1GB de RAM - 8GB de Memoria - Dual SIM - Camara de 2.08mp - Wi-Fi - Bluetooth - Android 6 - Negro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 8Plus 64 GB dorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surface Go 2 con pantalla tactil de 10.5"  Intel Pentium Gold </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MacBook Air (ultimo modelo) de 13."  Core i3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surface Book 3 tactil de 13.5"  Core i5 </t>
+  </si>
+  <si>
+    <t>Product Brand</t>
+  </si>
+  <si>
+    <t>Product Model</t>
   </si>
 </sst>
 </file>
@@ -923,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,15 +945,18 @@
     <col min="3" max="3" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -951,10 +964,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -962,54 +978,69 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1017,197 +1048,251 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1215,10 +1300,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1226,54 +1314,69 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1281,197 +1384,251 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1479,10 +1636,13 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1490,54 +1650,69 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1545,194 +1720,248 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1742,1124 +1971,1427 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3B3D5-F6FA-4C87-A928-452073C08ADD}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M101"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2869,10 +3401,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E6C261-8B8B-40D6-AA26-627203659E2A}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,1068 +3413,5141 @@
     <col min="3" max="3" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
         <v>76</v>
       </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" t="s">
         <v>76</v>
       </c>
-      <c r="C83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA10815C-0554-4993-9D67-425064E3838F}">
+  <dimension ref="A1:D269"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
       <c r="C97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" t="s">
+        <v>77</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" t="s">
+        <v>78</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" t="s">
+        <v>80</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" t="s">
+        <v>82</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="s">
+        <v>85</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" t="s">
+        <v>87</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>61</v>
+      </c>
+      <c r="C142" t="s">
+        <v>88</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" t="s">
+        <v>91</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>71</v>
+      </c>
+      <c r="C152" t="s">
+        <v>72</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>73</v>
+      </c>
+      <c r="C153" t="s">
+        <v>74</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" t="s">
+        <v>75</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>73</v>
+      </c>
+      <c r="C155" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>66</v>
+      </c>
+      <c r="C156" t="s">
+        <v>77</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>73</v>
+      </c>
+      <c r="C158" t="s">
+        <v>79</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" t="s">
+        <v>81</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" t="s">
+        <v>82</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>73</v>
+      </c>
+      <c r="C162" t="s">
+        <v>83</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" t="s">
+        <v>84</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164" t="s">
+        <v>85</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>86</v>
+      </c>
+      <c r="C165" t="s">
+        <v>87</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166" t="s">
+        <v>88</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>66</v>
+      </c>
+      <c r="C167" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" t="s">
+        <v>90</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>61</v>
+      </c>
+      <c r="C169" t="s">
+        <v>91</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>92</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" t="s">
+        <v>93</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" t="s">
         <v>94</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" t="s">
+        <v>96</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" t="s">
+        <v>97</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>39</v>
+      </c>
+      <c r="C178" t="s">
+        <v>178</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" t="s">
+        <v>98</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>179</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" t="s">
+        <v>99</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>37</v>
+      </c>
+      <c r="C182" t="s">
+        <v>100</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" t="s">
+        <v>101</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>44</v>
+      </c>
+      <c r="C184" t="s">
+        <v>102</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>39</v>
+      </c>
+      <c r="C185" t="s">
+        <v>178</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" t="s">
+        <v>103</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" t="s">
+        <v>180</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>41</v>
+      </c>
+      <c r="C188" t="s">
+        <v>104</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" t="s">
+        <v>105</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>37</v>
+      </c>
+      <c r="C190" t="s">
+        <v>106</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" t="s">
+        <v>178</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>45</v>
+      </c>
+      <c r="C192" t="s">
+        <v>107</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>46</v>
+      </c>
+      <c r="C194" t="s">
+        <v>109</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" t="s">
+        <v>110</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196" t="s">
+        <v>111</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" t="s">
+        <v>112</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" t="s">
+        <v>181</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" t="s">
+        <v>113</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" t="s">
+        <v>114</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" t="s">
+        <v>182</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" t="s">
+        <v>115</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" t="s">
+        <v>116</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>37</v>
+      </c>
+      <c r="C204" t="s">
+        <v>117</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" t="s">
+        <v>118</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>50</v>
+      </c>
+      <c r="C206" t="s">
+        <v>183</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>37</v>
+      </c>
+      <c r="C207" t="s">
+        <v>119</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>51</v>
+      </c>
+      <c r="C208" t="s">
+        <v>184</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>40</v>
+      </c>
+      <c r="C209" t="s">
+        <v>185</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>41</v>
+      </c>
+      <c r="C210" t="s">
+        <v>120</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211" t="s">
+        <v>121</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>49</v>
+      </c>
+      <c r="C212" t="s">
+        <v>122</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>37</v>
+      </c>
+      <c r="C213" t="s">
+        <v>123</v>
+      </c>
+      <c r="D213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" t="s">
+        <v>124</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" t="s">
+        <v>186</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>52</v>
+      </c>
+      <c r="C216" t="s">
+        <v>187</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>37</v>
+      </c>
+      <c r="C217" t="s">
+        <v>125</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" t="s">
+        <v>126</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" t="s">
+        <v>127</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" t="s">
+        <v>128</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>37</v>
+      </c>
+      <c r="C221" t="s">
+        <v>129</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>37</v>
+      </c>
+      <c r="C222" t="s">
+        <v>130</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>40</v>
+      </c>
+      <c r="C223" t="s">
+        <v>131</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>37</v>
+      </c>
+      <c r="C224" t="s">
+        <v>132</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>41</v>
+      </c>
+      <c r="C225" t="s">
+        <v>188</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226" t="s">
+        <v>133</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" t="s">
+        <v>134</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>40</v>
+      </c>
+      <c r="C228" t="s">
+        <v>135</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" t="s">
+        <v>136</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>37</v>
+      </c>
+      <c r="C230" t="s">
+        <v>137</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" t="s">
+        <v>138</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>40</v>
+      </c>
+      <c r="C232" t="s">
+        <v>139</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>40</v>
+      </c>
+      <c r="C233" t="s">
+        <v>140</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>37</v>
+      </c>
+      <c r="C234" t="s">
+        <v>141</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" t="s">
+        <v>189</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" t="s">
+        <v>142</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" t="s">
+        <v>143</v>
+      </c>
+      <c r="D237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>37</v>
+      </c>
+      <c r="C238" t="s">
+        <v>144</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>40</v>
+      </c>
+      <c r="C239" t="s">
+        <v>145</v>
+      </c>
+      <c r="D239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>41</v>
+      </c>
+      <c r="C240" t="s">
+        <v>146</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>34</v>
+      </c>
+      <c r="C241" t="s">
+        <v>147</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C242" t="s">
+        <v>190</v>
+      </c>
+      <c r="D242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>37</v>
+      </c>
+      <c r="C243" t="s">
+        <v>148</v>
+      </c>
+      <c r="D243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>55</v>
+      </c>
+      <c r="C244" t="s">
+        <v>149</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>40</v>
+      </c>
+      <c r="C245" t="s">
+        <v>150</v>
+      </c>
+      <c r="D245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246" t="s">
+        <v>151</v>
+      </c>
+      <c r="D246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>40</v>
+      </c>
+      <c r="C247" t="s">
+        <v>152</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>48</v>
+      </c>
+      <c r="C248" t="s">
+        <v>153</v>
+      </c>
+      <c r="D248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>40</v>
+      </c>
+      <c r="C249" t="s">
+        <v>154</v>
+      </c>
+      <c r="D249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>49</v>
+      </c>
+      <c r="C250" t="s">
+        <v>155</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>44</v>
+      </c>
+      <c r="C251" t="s">
+        <v>156</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252" t="s">
+        <v>157</v>
+      </c>
+      <c r="D252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>48</v>
+      </c>
+      <c r="C253" t="s">
+        <v>158</v>
+      </c>
+      <c r="D253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>40</v>
+      </c>
+      <c r="C254" t="s">
+        <v>159</v>
+      </c>
+      <c r="D254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>37</v>
+      </c>
+      <c r="C255" t="s">
+        <v>160</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>46</v>
+      </c>
+      <c r="C256" t="s">
+        <v>161</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>37</v>
+      </c>
+      <c r="C257" t="s">
+        <v>162</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" t="s">
+        <v>163</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" t="s">
+        <v>164</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>40</v>
+      </c>
+      <c r="C260" t="s">
+        <v>165</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" t="s">
+        <v>166</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>57</v>
+      </c>
+      <c r="C262" t="s">
+        <v>167</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>41</v>
+      </c>
+      <c r="C263" t="s">
+        <v>168</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>37</v>
+      </c>
+      <c r="C264" t="s">
+        <v>169</v>
+      </c>
+      <c r="D264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>58</v>
+      </c>
+      <c r="C265" t="s">
+        <v>170</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>40</v>
+      </c>
+      <c r="C266" t="s">
+        <v>171</v>
+      </c>
+      <c r="D266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>49</v>
+      </c>
+      <c r="C267" t="s">
+        <v>172</v>
+      </c>
+      <c r="D267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>37</v>
+      </c>
+      <c r="C268" t="s">
+        <v>173</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>44</v>
+      </c>
+      <c r="C269" t="s">
+        <v>174</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\WebScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF0D771-1919-4B2F-B36B-1FEF6B1834DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EF4BD-09BA-4770-B13B-83F8A7891ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="463">
   <si>
     <t>Laptop Brand</t>
   </si>
@@ -811,6 +811,612 @@
   </si>
   <si>
     <t>ProductImg</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Laptop Img</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71vvXGmdKWL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Aspire 5 Slim - visualizacion IPS Full HD de 15,6 Pulgadas, AMD Ryzen 5 3500U, Vega 8 Graphics, 8GB DDR4, 256 GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61vIVmO7OHL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo Laptop IP 3-14IIL Intel Ci5, RAM 12GB, SDD 256GB, Windows 10, Azul </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/7132lTn3fOL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Laptop Gamer TUF 15.6", GeForce GTX 1650, Ryzen 7 , 8GB RAM, 256 GB SSD, FX505DT-BQ155T </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51dOURE3uLL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI Matebook 13 2020 - Computadora portatil Ultra Delgada 13", Intel Core i5-10210U, Windows 10, 512 GB SSD + 8 GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61vIVmO7OHL._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61VKlb8hKyL._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Laptop Inspiron 3505 AMD Athlon Silver, 8GB RAM, 256GB SSD, Win 10 - Plata. </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61oQOVvXg7L._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Gaming G3 15 3500 Intel Core I5 8Gb 256Gb Blanco </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/7132lTn3fOL._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71vvXGmdKWL._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/616lp68ZrQL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Inspiron 5391 13" Core i7 10a. Gen., 8GB RAM, 512 SSD, Windows 10. Incluye Monitor de 20" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Aspire 5 Slim - visualizacion IPS Full HD de 15,6 Pulgadas, AMD Ryzen 7 3700U, RX Vega 10 graficos, 8GB DDR4, 512 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51jeoMkZiKL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Lenovo IdeaPad Laptop ComputerAMD A6-9220e 1.6GHz 4GB Memory 64GB eMMC Flash Memory 14" AMD Radeon R4 AC WiFi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei Matebook 13 2020 -Laptop 13" Procesador Amd Ryzen 5 3500U, Windows 10, Memoria De 256 Gb Rom + 8 Gb Ram, Gpu </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61c1UTa9fwL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Aspire 5 A515-44-R2SA, 15.6", Full HD, AMD Ryzen 7 4700U Octa-Core Procesador movil con Radeon Graphics, 8GB DDR4 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51RP5cuwFXL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP COMHPI970 Laptop - 14", Intel Celeron, N4000, 4 GB, Windows 10 Home, 500 GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61VKlb8hKyL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81Y6WZhCuDL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Laptop 14 pulgadas, Ryzen 3 3200U hasta 3,5 GHz, AMD Radeon Vega 3 Graphics, 4GB SDRAM, SSD de 128 GB, WiFi, camara </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/611KJn0s%2BKL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Laptop G3 15.6" Core i5 10a. Gen. 8GB RAM, 256 SSD, NVIDIA GEFORCE GTX 1650, Windows 10 - Blanco. </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61%2BLliKJpyL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei MateBook D 15" - AMD Ryzen, Windows 10 - 8+256 GB,15.6 pulgadas, Color Plateado (Mystic Silver) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61oQOVvXg7L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/712QuIJM7KL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>LAPTOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAPTOP GAMING MSI GF63 Thin 10SCSR-610MX 15.6" FHD, IPS, NVIDIA GEFORCE GTX1650TI MAX-Q 4GB, INTEL CORE i5-10300H, RAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Aspire 5 Slim Laptop 15.6" Full HD IPS visualizacion, AMD Ryzen 3 3200U, Vega 3 Graphics, 4 GB DDR4, 128 GB SSD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71sRJdOEUEL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Laptop G5 Core i7 10a. Gen,16 GB RAM, 512SSD, NVIDIA GEFORCE GTX 1660 Ti, Win 10 - Negro </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/719Xp9IGIVL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo IdeaPad 3 2020 - visualizacion tactil HD de 15 Pulgadas, Intel 10 generacion Dual-Core i3-1005G1 CPU, 8GB DDR4 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61UVAs3Qk-L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Chromebook 4 Chrome OS 11.6 Pulgadas HD Intel Celeron Processor N4000 4GB RAM 32GB eMMC Gigabit Wi-Fi - XE310XBA </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81M%2BO6xJ0UL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Pavilion Laptop, Pantalla de 15" FHD, Procesador AMD Ryzen 7 3700U(2a), 16GB RAM, 1TB+128GB SSD, Sistema operativo </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71QOu1OVbdL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Aspire 5, 15.6" Full HD IPS Display, AMD Ryzen 3 3200U, Vega 3 Graphics, 4GB DDR4, 128GB SSD, retroiluminado </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/31lliPCo43L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo Laptop IdeaPad L340-15API 15.6", AMD RYZEN 5, RAM 8GB,2TB HDD Abyss Blue </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/717ywJDnAHL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Pavilion Intel Pentium Gold 4417U 4 GB 500 GB 15.6-inch DVD Windows 10 Laptop, Blanco crudo, 15-15.99 inches (Renewed </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61u9YxmwMCL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei Matebook D 14", Amd Ryzen, Windows 10, Ssd 512 Gb 8Gb Ram, Color Plateado (Mystic Silver) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61gyGLERUKL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>PortÃ¡til</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portatil Dell Latitude E7470 de 14 pulgadas, Core i5-6300U 2,4 GHz, 8GB de RAM, 256 GB SSD, Windows 10 Pro 64 bits </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61oWaXNhd1L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei MateBook D 15" AMD Ryzen 5, Windows 10,512GB SSD, 8GB RAM,15.6 Pulgadas, Color Gris </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61bm32Q4E8L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Aspire 3 Core I3-1005G1; Pantalla 15.6" HD; 8 GB RAM; 1 TB HDD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71SZpMT7k3L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP visualizacion Insignia Chromebook, 11,6" HD (1366 x 768), procesador Intel Celeron N3350, 4GB LPDDR2, 32GB eMMC </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81p0gzNy7AL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo ideapad S145 pantalla 15.6 pulgadas, laptop IPS, procesador Intel Core 10 generacion i3-1005G1 de doble nucleo </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/716sLNiFKWL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook IdeaPad S340-15IIL Ci5, 12 GB, 1 TB DD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Qr5HOVCzL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Gaming G3 15 3500 Intel Core I5 8Gb 256Gb Negro </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81ogtKnKZXL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo Flex 5 14" FHD IPS tactil Premium 2 en 1, AMD 4th Gen Ryzen 5 4500U, 16GB RAM, 512 GB PCIe SSD, teclado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei MateBook D 15" - AMD Ryzen, Windows 10-1TB+256 GB, 8GB RAM,15.6 Pulgadas, Color Plateado (Mystic Silver) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Vw3ExhsQL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus VivoBook S13 Portatil Delgado y Ligero, 33 cm., Indie Negro, 13-13.99 Inches </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61ViOMIUhmL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo Chromebook S330 Laptop, Pantalla FHD de 14 Pulgadas (1920 x 1080), procesador MediaTek MT8173C, 4GB LPDDR3, 64GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61dJ7TgwcXL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Laptop Inspiron 3585, AMD Ryzen 5, 8GB RAM, 512GB SSD, Win 10 - Plata. </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/810R8jfOCqL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Chromebook Laptop- 14 Pulgadas HD 180 Grados NanoEdge, procesador Intel Dual Core Celeron N3350, 4 GB RAM, 32 GB de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAPTOP GAMING MSI GF63 Thin 10SCSR-456MX 15.6" FHD, IPS, NVIDIA GEFORCE GTX1650 TI MAX-Q 4GB, INTEL CORE i7-10750H, RAM </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71iPHl2UQlL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Laptop Gaming G3 3500, Core i7 10a. Gen.,16GB RAM, 256GB SSD, NVIDIA GTX 1650 Ti, Win 10 - Negro. </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81egAUg2YXL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 14-cf3021la, Windows 10, Intel Core I5, 8GB RAM </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71-PjLUeO%2BL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Vivobook S15 S512 Delgado y Ligero, i7 | 256 G SSD + 1T HDD | GeForce MX250, 15-15.99 Inches </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Ni0lpcziL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple MacBook Pro (de 16 pulgadas, Touch Bar, Procesador Intel Core i7 de 6 nucleos y 2.6 GHz, 16 GB RAM, 512 GB) - Gris </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51u5n--kWWL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Laptop VivoBook S, 15", Core i7 10a Gen, 12GB RAM, 512GB SSD, ScreenPad 2.0, Plata, S532FA-BN160T </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71FrQxHnBQL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus VivoBook S15 S533 Portatil Delgado y Ligero, Indie Negro, 15-15.99 Inches </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71V4812suvL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 2020 Newest Pavilion X360 2 en 1 convertible portatil de visualizacion tactil HD de 14", 10 generacion Intel Core i3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Gaming G5 15 5500 Intel Core i7 16GB 512GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71dqjxW8g5L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo IdeaPad 3 portatil de 14", visualizacion FHD 1920 x 1080, procesador AMD Ryzen 5 3500U, 8 GB DDR4 RAM, 256 GB SSD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81DkONvgRVL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus ZenBook 14 Ultra-Slim Laptop 14" Full HD NanoEdge Bezel, Intel Core i5-1035G1, 8GB RAM, 512GB PCIe SSD, NumberPad </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61uJhCwcL6L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Rog Strix G15 Electro, 15", Geforce Gtx 1650 Ti With Rog Boost Intel, Core I5 10A Gen, 16Gb Ram, 512 Ssd, G512Li </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71pfbzHCxVL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>XPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPG XENIA Notebook-Laptop Gaming de 15.6 NVIDIA GEFORCE GTX 1660Ti Intel Core I7-9750H, RAM 32 GB XPG DDR4 2666Mhz, SSD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81lcaEKo3hL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Laptop, Pantalla de 13.3, Procesador Intel Core i5-1035G1 10 generacion a 3.6 GHz, 8 GB RAM, 256 GB SSD +16 GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/714fEqLQJCL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Latitude 5480 14 pulgadas, Core i5-6200U 2,3 GHz, 8 GB Ram, 256 GB SSD, Windows 10 Pro 64 bits (Renewed) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/8133cgtdGnL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Laptop de 15,6 pulgadas (AMD Quad-Core Ryzen 5 3500U, 8GB RAM, 256 GB SSD, HDMI, WiFi, Bluetooth, camara web HD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81TxlKTdzwL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple MacBook Air (de 13 pulgadas, Procesador Intel Core i3 de doble nucleo y 1.1 GHz de decima generacion, 8 GB RAM </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/A1A2yQlAXCL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus TUF Gaming A15 Laptop para Videojuegos, 15.6 Pulgadas, 144 Hz Full HD IPS, AMD Ryzen 5 4600H, GeForce GTX 1650, 8 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61dqNELHRqL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI Matebook D 14 R7 - Laptop 14", AMD Ryzen 7 3700U, Windows 10, 512 GB ROM + 8 GB RAM, GPU Radeon RX Vega 10 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81Vtd8etZtL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo Thinkpad X131e Chromebook de 11.6 pulgadas LED Intel Celeron Dual Core 1,50 gHz modelo 628323u (Renewed) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71UQxg0JFCL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo IdeaPad 3 Laptop de 14 pulgadas, FHD de 14 pulgadas (1920 x 1080) AMD Ryzen 5 3500U 8GB DDR4 RAM, 256GB SSD, AMD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71vLhUMKEUL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Gaming G5 15 5505 AMD Ryzen 7 16GB 512GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51pPm%2B3%2BAbL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei Matebook 13 2020 -Laptop 13" Procesador Amd Ryzen 5 3500U, Windows 10, Memoria De 512 Gb Rom + 8 Gb Ram, Gpu </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/816sFhBGmKL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Lenovo IdeaPad 3 15.6 pulgadas Laptop Intel Core i3-1005G1 8GB RAM 256GB SSD Windows 10 pulgadas Modo S Azul </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71kMPSNqHbL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS VivoBook 15 S513 Portatil delgado y ligero, visualizacion FHD de 15,6 pulgadas, procesador AMD Ryzen 7 4700U, 8 GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61EbQiofbGL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Pavilion portatil FHD de 15,6", procesador Intel Quad-Core i5 de 8 GB, memoria DDR4 WiFi, Bluetooth, Windows 10 Home </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81TM5CgvlQL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Chromebook C523 visualizacion HD NanoEdge de 15,6" con bisagra de 180 Grados procesador Intel Dual Core Celeron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 HP 15.6 pulgadas HD LED visualizacion portatil Intel Pentium Gold 6405U procesador 4GB DDR4 RAM, 128 GB SSD, HDMI </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Np91bqLhL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 HP portatil de 14 pulgadas, procesador Intel Celeron N4000 de hasta 2,6 GHz, 4 GB de RAM DDR4, 64 GB SSD, Intel UHD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51tJRvYuuZL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop Asus Vivobook S, 15", Core I5 10A Gen, 8Gb Ram, 1Tb Ssd, White, S533Fa-Bq127T </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/618GEuHt8ML._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Swift 3 Laptop delgada y ligera, 14 pulgadas Full HD IPS, AMD Ryzen 5 4500U Hexa-Core Procesador con Radeon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Laptop G3 15.6" Core i5 10a. Gen. 8GB RAM, 1TB DD + 256 SSD, NVIDIA GEFORCE GTX 1650 Ti, Windows 10 - Negro. </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71-mNJLIR5L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Pavilion Gaming 15, NVIDIA GeForce GTX 1650, AMD Ryzen 5 4600H, 8GB DDR4 RAM, 512 GB SSD PCIe NVMe, 15.6" Full HD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81xIwnpo67L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple MacBook Air (de 13 pulgadas, Procesador Intel Core i5 de 4 nucleos y 1.1 GHz de decima generacion, 8 GB RAM, 512 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81gPkYDehqL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Newest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newest HP 14" HD Premium Business Laptop PC | 10th Gen Intel Quad-Core i5-1035G1 up to 3.6GHz | 8GB RAM | 256GB SSD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71GjONcpjUL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP portatil FHD de 15 pulgadas, 10 generacion Intel Core i5-1035G1, 8 GB RAM, 256 GB unidad de estado solido, Windows 10 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61HPOmkFl1L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell Laptop Inspiron 14" 3493, Core i5 10a. Gen., 8GB RAM, 256GB SSD, Win 10 - Plata. </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81UqUntkz6L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS Laptop L406 portatil delgado y ligero, visualizacion HD de 14 pulgadas, procesador Intel Celeron N4000, 4 GB de RAM </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71aYaZp-spL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Stream Laptop de 14 pulgadas, Intel Celeron N4000, 4 GB RAM, 64 GB eMMC, Windows 10 Home en modo S (14-cb159nr, Jet </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41eVdbpbn8L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP EliteBook 840 G4 14 pulgadas HD Laptop, Core i5-7300U 2.6GHz, 16GB RAM, 256GB Unidad de estado solido, Webcam </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71k45hZkLmL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Predator Helios 300 Gaming Laptop, Intel i7-10750H, NVIDIA GeForce RTX 2060 6GB, 15.6" Full HD 144Hz 3ms IPS </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51bTeBj1J3L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI Matebook X Pro 2020 i5 - Laptop de 13.9" de Decima Generacion Intel Core i5-10210U, Windows 10 Home, Memoria de </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51BMiPWtYeL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 HP Envy 13,3 pulgadas 4K Ultra HD visualizacion tactil portatil 10 generacion Intel i7-1065G7 8 GB memoria DDR4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP - Envy Laptop de visualizacion tactil 4K Ultra HD de 13,3 pulgadas - Intel Core i7-1065G7 - memoria DDR4 de 8 GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81r1MpT7eBL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Pavilion Laptop 15.6 pulgadas Full HD, AMD Ryzen 5 3500U, AMD Radeon Vega 8 Graphics, 8GB SDRAM, 1TB HDD + 128 GB SSD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81%2B0uLLEfYL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Vivobook S15 S532 - Portatil Fino y Ligero, 15,6" FHD, Intel Core i5-10210U, 8 GB DDR4 RAM, 512 GB PCIe SSD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51tmIh-xfvL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop Dell Inspiron 5593, Pantalla 15.6", Procesador Core i5 10a. Gen, 8GB RAM, 256 SSD, WIN 10, Color AZUL </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71BJqmWtKSL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer Aspire 15.6-inch HD Business Chromebook-Intel Dual-Core Celeron Processor, 4GB LPDDR3, 16GB eMMC Storage, Intel HD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81nx6wz7GjL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo IdeaPad S340 Intel Core i3-8145u 8. generacion 4 GB DDR4 1TB HDD 15.6-inch HD Windows 10 Slim Laptop Platinum </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61avuUmetYL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Laptop X512DA-BTS2020RL 15.6" AMD Ryzen 5 8GB 512GB Plata </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/814I0Iz4QLL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Pavilion Laptop, Pantalla de 15" HD, Procesador AMD Ryzen 3-3300U, 12GB RAM, 1TB+128GB SSD, Sistema operativo Windows </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/616ayxYmzZL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo IdeaPad 3 2020, visualizacion de bisel estrecho Full HD de 14", procesador AMD Ryzen 3 3250U de doble nucleo, 8 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71idFa2cEuL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop HP Stream 11 pulgadas, Intel Celeron </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51nJj-tbvnL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC portatil HP 15.6 BrightView Premium, A9-9125 | 4 GB | 500 GB, 15-15.99 inches (Renewed) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/615HhqLCmhL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop Gamer ASUS TUF 15.6", GeForce GTX 1660, Ryzen 7 , 8GB RAM, 1TB HDD + 512GB SSD, FA506IU-HN243T </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41w4cIrvfWL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop DELL inspiron 15 3593: Procesador Intel Core i3 1005G1 (Hasta 3.4 GHz), Memoria de 20GB (16 GB de Intel Optane </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51WQdtPRFJL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple MacBook Pro (de 13 pulgadas, Touch Bar, Procesador Intel Core i5 de 4 nucleos y 1.4 GHz de octava generacion, 8 GB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51v32-2A0lL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Portatil de 14 pulgadas, Oro palido, 10th Gen i3-1005G1 (Renewed) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51xGKouDlgL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei Matebook 13 + MIFI- Computadora portatil ultradelgada 13" (Intel Core i5-8265U, 8GB RAM + 512GB SSD, Nvidia </t>
   </si>
 </sst>
 </file>
@@ -1128,1034 +1734,2570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D73"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>162</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>163</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
       <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>164</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
       <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
       <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>162</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
       <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>162</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
       <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>163</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
       <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
         <v>164</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>20</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>22</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>23</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>24</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>25</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>27</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>23</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>30</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
       <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
       <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
         <v>162</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
       <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
         <v>162</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
       <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>163</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>9</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
       <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
         <v>164</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>11</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>14</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>17</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>19</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>20</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>7</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>21</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>22</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>23</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>24</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>25</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>22</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>26</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>27</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>23</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>28</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>29</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>30</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
       <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
         <v>31</v>
       </c>
-      <c r="D73">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>265</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>269</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>271</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>267</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>269</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>267</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" t="s">
+        <v>281</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88">
+        <v>2020</v>
+      </c>
+      <c r="D88" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" t="s">
+        <v>284</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
+        <v>288</v>
+      </c>
+      <c r="D91" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>274</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>294</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>296</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>276</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" t="s">
+        <v>300</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>303</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>304</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
+        <v>307</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>308</v>
+      </c>
+      <c r="C102" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" t="s">
+        <v>309</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>310</v>
+      </c>
+      <c r="C103" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" t="s">
+        <v>311</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" t="s">
+        <v>288</v>
+      </c>
+      <c r="D105" t="s">
+        <v>315</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>317</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" t="s">
+        <v>319</v>
+      </c>
+      <c r="D107" t="s">
+        <v>320</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>322</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" t="s">
+        <v>324</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D110" t="s">
+        <v>326</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>328</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>329</v>
+      </c>
+      <c r="C112" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112" t="s">
+        <v>331</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>333</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>335</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" t="s">
+        <v>336</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>337</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>338</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>340</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>342</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>344</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" t="s">
+        <v>345</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>348</v>
+      </c>
+      <c r="C122" t="s">
+        <v>288</v>
+      </c>
+      <c r="D122" t="s">
+        <v>349</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>351</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>353</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>354</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>356</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>357</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" t="s">
+        <v>288</v>
+      </c>
+      <c r="D127" t="s">
+        <v>359</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>302</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>360</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>361</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>362</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>363</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>364</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>365</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>366</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>367</v>
+      </c>
+      <c r="C132" t="s">
+        <v>368</v>
+      </c>
+      <c r="D132" t="s">
+        <v>369</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>370</v>
+      </c>
+      <c r="C133" t="s">
+        <v>288</v>
+      </c>
+      <c r="D133" t="s">
+        <v>371</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>373</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>267</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>276</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>269</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" t="s">
+        <v>265</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>267</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" t="s">
+        <v>375</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s">
+        <v>377</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>379</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>380</v>
+      </c>
+      <c r="C144" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" t="s">
+        <v>381</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>383</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>385</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>387</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>388</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" t="s">
+        <v>389</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149">
+        <v>2020</v>
+      </c>
+      <c r="D149" t="s">
+        <v>391</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" t="s">
+        <v>393</v>
+      </c>
+      <c r="D150" t="s">
+        <v>394</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>395</v>
+      </c>
+      <c r="C151" t="s">
+        <v>288</v>
+      </c>
+      <c r="D151" t="s">
+        <v>396</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>397</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>398</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153">
+        <v>2020</v>
+      </c>
+      <c r="D153" t="s">
+        <v>399</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154">
+        <v>2020</v>
+      </c>
+      <c r="D154" t="s">
+        <v>401</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" t="s">
+        <v>403</v>
+      </c>
+      <c r="D155" t="s">
+        <v>404</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>405</v>
+      </c>
+      <c r="C156" t="s">
+        <v>264</v>
+      </c>
+      <c r="D156" t="s">
+        <v>406</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>332</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>407</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>408</v>
+      </c>
+      <c r="C158" t="s">
+        <v>288</v>
+      </c>
+      <c r="D158" t="s">
+        <v>409</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" t="s">
+        <v>411</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" t="s">
+        <v>413</v>
+      </c>
+      <c r="D160" t="s">
+        <v>414</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>415</v>
+      </c>
+      <c r="C161" t="s">
+        <v>288</v>
+      </c>
+      <c r="D161" t="s">
+        <v>416</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>417</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>418</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>419</v>
+      </c>
+      <c r="C163" t="s">
+        <v>393</v>
+      </c>
+      <c r="D163" t="s">
+        <v>420</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>421</v>
+      </c>
+      <c r="C164" t="s">
+        <v>288</v>
+      </c>
+      <c r="D164" t="s">
+        <v>422</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>423</v>
+      </c>
+      <c r="C165" t="s">
+        <v>288</v>
+      </c>
+      <c r="D165" t="s">
+        <v>424</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>425</v>
+      </c>
+      <c r="C166" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166" t="s">
+        <v>426</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>427</v>
+      </c>
+      <c r="C167" t="s">
+        <v>50</v>
+      </c>
+      <c r="D167" t="s">
+        <v>428</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>429</v>
+      </c>
+      <c r="C168">
+        <v>2020</v>
+      </c>
+      <c r="D168" t="s">
+        <v>430</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>429</v>
+      </c>
+      <c r="C169" t="s">
+        <v>288</v>
+      </c>
+      <c r="D169" t="s">
+        <v>431</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>432</v>
+      </c>
+      <c r="C170" t="s">
+        <v>288</v>
+      </c>
+      <c r="D170" t="s">
+        <v>433</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>435</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>436</v>
+      </c>
+      <c r="C172" t="s">
+        <v>403</v>
+      </c>
+      <c r="D172" t="s">
+        <v>437</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>438</v>
+      </c>
+      <c r="C173" t="s">
+        <v>264</v>
+      </c>
+      <c r="D173" t="s">
+        <v>439</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>440</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" t="s">
+        <v>441</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>442</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>443</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>444</v>
+      </c>
+      <c r="C176" t="s">
+        <v>288</v>
+      </c>
+      <c r="D176" t="s">
+        <v>445</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>446</v>
+      </c>
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" t="s">
+        <v>447</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>448</v>
+      </c>
+      <c r="C178" t="s">
+        <v>403</v>
+      </c>
+      <c r="D178" t="s">
+        <v>449</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>450</v>
+      </c>
+      <c r="C179" t="s">
+        <v>451</v>
+      </c>
+      <c r="D179" t="s">
+        <v>452</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>453</v>
+      </c>
+      <c r="C180" t="s">
+        <v>403</v>
+      </c>
+      <c r="D180" t="s">
+        <v>454</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>455</v>
+      </c>
+      <c r="C181" t="s">
+        <v>403</v>
+      </c>
+      <c r="D181" t="s">
+        <v>456</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>457</v>
+      </c>
+      <c r="C182" t="s">
+        <v>36</v>
+      </c>
+      <c r="D182" t="s">
+        <v>458</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>459</v>
+      </c>
+      <c r="C183" t="s">
+        <v>288</v>
+      </c>
+      <c r="D183" t="s">
+        <v>460</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>461</v>
+      </c>
+      <c r="C184" t="s">
+        <v>35</v>
+      </c>
+      <c r="D184" t="s">
+        <v>462</v>
+      </c>
+      <c r="E184">
         <v>1</v>
       </c>
     </row>
@@ -2168,8 +4310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3B3D5-F6FA-4C87-A928-452073C08ADD}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5290,10 +7432,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA10815C-0554-4993-9D67-425064E3838F}">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267:A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5320,11 +7462,14 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5334,11 +7479,14 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -5348,11 +7496,14 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -5362,11 +7513,14 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5376,11 +7530,14 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5390,11 +7547,14 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5404,11 +7564,14 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5418,11 +7581,14 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5432,11 +7598,14 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -5446,11 +7615,14 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5460,11 +7632,14 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>279</v>
+      </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5474,11 +7649,14 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5488,11 +7666,14 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
+      <c r="B14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5502,11 +7683,14 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5516,11 +7700,14 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>285</v>
+      </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5530,11 +7717,14 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5544,11 +7734,14 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>290</v>
+      </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>274</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5558,11 +7751,14 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>291</v>
+      </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5572,11 +7768,14 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5586,11 +7785,14 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5600,11 +7802,14 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>297</v>
+      </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5614,11 +7819,14 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5628,11 +7836,14 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>263</v>
+      </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5642,11 +7853,14 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>302</v>
+      </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5656,11 +7870,14 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>304</v>
+      </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5670,11 +7887,14 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>306</v>
+      </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>307</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5684,11 +7904,14 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>308</v>
+      </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5698,11 +7921,14 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>310</v>
+      </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5712,11 +7938,14 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>312</v>
+      </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5726,11 +7955,14 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>288</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>315</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5740,11 +7972,14 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>316</v>
+      </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5754,11 +7989,14 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5768,11 +8006,14 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>321</v>
+      </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>322</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5782,11 +8023,14 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5796,11 +8040,14 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>325</v>
+      </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5810,11 +8057,14 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>327</v>
+      </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5824,11 +8074,14 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5838,11 +8091,14 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>332</v>
+      </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5852,11 +8108,14 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>334</v>
+      </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5866,11 +8125,14 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>295</v>
+      </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -5880,11 +8142,14 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>337</v>
+      </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -5894,11 +8159,14 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>339</v>
+      </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -5908,11 +8176,14 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>341</v>
+      </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5922,11 +8193,14 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>343</v>
+      </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5936,11 +8210,14 @@
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>298</v>
+      </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -5950,11 +8227,14 @@
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>346</v>
+      </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>347</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5964,11 +8244,14 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>348</v>
+      </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -5978,11 +8261,14 @@
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>350</v>
+      </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5992,11 +8278,14 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>352</v>
+      </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>353</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6006,11 +8295,14 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>354</v>
+      </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -6020,11 +8312,14 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>356</v>
+      </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -6034,11 +8329,14 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>358</v>
+      </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -6048,11 +8346,14 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>302</v>
+      </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>360</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -6062,11 +8363,14 @@
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>361</v>
+      </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>362</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -6076,11 +8380,14 @@
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>363</v>
+      </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -6090,11 +8397,14 @@
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>365</v>
+      </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -6104,11 +8414,14 @@
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>367</v>
+      </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -6118,11 +8431,14 @@
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>370</v>
+      </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -6132,11 +8448,14 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>372</v>
+      </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -6146,11 +8465,14 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -6160,11 +8482,14 @@
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>273</v>
+      </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -6174,11 +8499,14 @@
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>275</v>
+      </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -6188,11 +8516,14 @@
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6202,11 +8533,14 @@
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>278</v>
+      </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -6216,11 +8550,14 @@
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>272</v>
+      </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6230,11 +8567,14 @@
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>374</v>
+      </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6244,11 +8584,14 @@
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>376</v>
+      </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -6258,11 +8601,14 @@
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>378</v>
+      </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>379</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6272,11 +8618,14 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>380</v>
+      </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6286,11 +8635,14 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>382</v>
+      </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>383</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6300,11 +8652,14 @@
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>384</v>
+      </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>385</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6314,11 +8669,14 @@
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>386</v>
+      </c>
       <c r="C73" t="s">
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6328,518 +8686,629 @@
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>388</v>
+      </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>389</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
-        <v>53</v>
+      <c r="B75" t="s">
+        <v>390</v>
+      </c>
+      <c r="C75">
+        <v>2020</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>392</v>
+      </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>394</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>395</v>
+      </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>396</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>397</v>
+      </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>398</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
-        <v>61</v>
+      <c r="B79" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79">
+        <v>2020</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>399</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
-        <v>63</v>
+      <c r="B80" t="s">
+        <v>400</v>
+      </c>
+      <c r="C80">
+        <v>2020</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>401</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>402</v>
+      </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>404</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>405</v>
+      </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>332</v>
+      </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>408</v>
+      </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>409</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>410</v>
+      </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>412</v>
+      </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>413</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>414</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>415</v>
+      </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>416</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>417</v>
+      </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>418</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>419</v>
+      </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>421</v>
+      </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>423</v>
+      </c>
       <c r="C91" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>425</v>
+      </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="D92" t="s">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>427</v>
+      </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
-        <v>53</v>
+      <c r="B94" t="s">
+        <v>429</v>
+      </c>
+      <c r="C94">
+        <v>2020</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>429</v>
+      </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>432</v>
+      </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>434</v>
+      </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>436</v>
+      </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>437</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>438</v>
+      </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="D99" t="s">
-        <v>55</v>
+        <v>439</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>440</v>
+      </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>441</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>442</v>
+      </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>443</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>444</v>
+      </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>445</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
+      <c r="B103" t="s">
+        <v>446</v>
+      </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>448</v>
+      </c>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>403</v>
       </c>
       <c r="D104" t="s">
-        <v>64</v>
+        <v>449</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>450</v>
+      </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>451</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>452</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
+      <c r="B106" t="s">
+        <v>453</v>
+      </c>
       <c r="C106" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>454</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
+      <c r="B107" t="s">
+        <v>455</v>
+      </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>456</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
+      <c r="B108" t="s">
+        <v>457</v>
+      </c>
       <c r="C108" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
-        <v>69</v>
+        <v>458</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
+      <c r="B109" t="s">
+        <v>459</v>
+      </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>70</v>
+        <v>460</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
+      <c r="B110" t="s">
+        <v>461</v>
+      </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>462</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6847,10 +9316,10 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D111" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -6864,7 +9333,7 @@
         <v>53</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -6875,10 +9344,10 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D113" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -6889,10 +9358,10 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -6903,10 +9372,10 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D115" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -6917,10 +9386,10 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D116" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -6931,10 +9400,10 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D117" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -6945,10 +9414,10 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -6959,10 +9428,10 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D119" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -6973,10 +9442,10 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D120" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -6987,10 +9456,10 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -7001,10 +9470,10 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -7015,10 +9484,10 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D123" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -7029,10 +9498,10 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -7043,10 +9512,10 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -7057,10 +9526,10 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -7071,10 +9540,10 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -7085,10 +9554,10 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -7102,7 +9571,7 @@
         <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -7113,10 +9582,10 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D130" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -7127,10 +9596,10 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -7144,7 +9613,7 @@
         <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -7155,10 +9624,10 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D133" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -7169,10 +9638,10 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D134" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -7183,10 +9652,10 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D135" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -7200,7 +9669,7 @@
         <v>53</v>
       </c>
       <c r="D136" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -7211,10 +9680,10 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D137" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -7225,10 +9694,10 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D138" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -7239,10 +9708,10 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D139" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -7253,10 +9722,10 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D140" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -7267,10 +9736,10 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D141" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -7281,10 +9750,10 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -7295,10 +9764,10 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D143" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -7309,10 +9778,10 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D144" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -7323,10 +9792,10 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D145" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -7337,10 +9806,10 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D146" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -7351,10 +9820,10 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D147" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -7365,10 +9834,10 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D148" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -7379,10 +9848,10 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D149" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -7393,10 +9862,10 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D150" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -7407,10 +9876,10 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D151" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -7421,10 +9890,10 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D152" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>2</v>
@@ -7438,7 +9907,7 @@
         <v>65</v>
       </c>
       <c r="D153" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -7449,10 +9918,10 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D154" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -7463,10 +9932,10 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -7480,7 +9949,7 @@
         <v>58</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -7491,10 +9960,10 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D157" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -7505,10 +9974,10 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D158" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -7519,10 +9988,10 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -7536,7 +10005,7 @@
         <v>53</v>
       </c>
       <c r="D160" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -7547,10 +10016,10 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D161" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -7561,10 +10030,10 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D162" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -7575,10 +10044,10 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D163" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -7589,10 +10058,10 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -7603,10 +10072,10 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D165" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -7617,10 +10086,10 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D166" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -7631,10 +10100,10 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D167" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -7645,10 +10114,10 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D168" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -7659,10 +10128,10 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -7672,629 +10141,518 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>168</v>
-      </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D170" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>170</v>
-      </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D171" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>172</v>
-      </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D172" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>173</v>
-      </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D173" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>174</v>
-      </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D174" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>176</v>
-      </c>
       <c r="C175" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>173</v>
-      </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D176" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>174</v>
-      </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D177" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>177</v>
-      </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D178" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>178</v>
-      </c>
       <c r="C179" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D179" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="E179">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>180</v>
-      </c>
       <c r="C180" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D180" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="E180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>181</v>
-      </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D181" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>182</v>
-      </c>
       <c r="C182" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D182" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>183</v>
-      </c>
       <c r="C183" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D183" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>184</v>
-      </c>
       <c r="C184" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D184" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E184">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>185</v>
-      </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D185" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="E185">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
-        <v>187</v>
-      </c>
       <c r="C186" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D186" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="E186">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
-        <v>189</v>
-      </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D187" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="E187">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>190</v>
-      </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D188" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>191</v>
-      </c>
       <c r="C189" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D189" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E189">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>192</v>
-      </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>193</v>
-      </c>
       <c r="C191" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D191" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>194</v>
-      </c>
       <c r="C192" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D192" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E192">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>195</v>
-      </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D193" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>197</v>
-      </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D194" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E194">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>198</v>
-      </c>
       <c r="C195" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D195" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>199</v>
-      </c>
       <c r="C196" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D196" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E196">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>200</v>
-      </c>
       <c r="C197" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D197" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
-        <v>201</v>
-      </c>
       <c r="C198" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D198" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>202</v>
-      </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D199" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E199">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
-        <v>203</v>
-      </c>
       <c r="C200" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D200" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
-        <v>204</v>
-      </c>
       <c r="C201" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D201" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E201">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>205</v>
-      </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D202" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E202">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>206</v>
-      </c>
       <c r="C203" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D203" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>207</v>
-      </c>
       <c r="C204" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D204" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
-        <v>209</v>
-      </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D205" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
-        <v>210</v>
-      </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D206" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -8302,13 +10660,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D207" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -8319,13 +10677,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C208" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D208" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E208">
         <v>3</v>
@@ -8336,13 +10694,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="C209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D209" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="E209">
         <v>3</v>
@@ -8353,13 +10711,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C210" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D210" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -8370,13 +10728,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="C211" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D211" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="E211">
         <v>3</v>
@@ -8387,13 +10745,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D212" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E212">
         <v>3</v>
@@ -8404,13 +10762,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="C213" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D213" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E213">
         <v>3</v>
@@ -8421,13 +10779,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D214" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="E214">
         <v>3</v>
@@ -8438,13 +10796,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C215" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D215" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E215">
         <v>3</v>
@@ -8455,13 +10813,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C216" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D216" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="E216">
         <v>3</v>
@@ -8472,13 +10830,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D217" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -8489,13 +10847,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D218" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E218">
         <v>3</v>
@@ -8506,13 +10864,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D219" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="E219">
         <v>3</v>
@@ -8523,13 +10881,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D220" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="E220">
         <v>3</v>
@@ -8540,13 +10898,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D221" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E221">
         <v>3</v>
@@ -8557,13 +10915,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D222" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E222">
         <v>3</v>
@@ -8574,13 +10932,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D223" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E223">
         <v>3</v>
@@ -8591,13 +10949,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C224" t="s">
         <v>36</v>
       </c>
       <c r="D224" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E224">
         <v>3</v>
@@ -8608,13 +10966,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C225" t="s">
         <v>36</v>
       </c>
       <c r="D225" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E225">
         <v>3</v>
@@ -8625,13 +10983,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D226" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -8642,13 +11000,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C227" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D227" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="E227">
         <v>3</v>
@@ -8659,13 +11017,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D228" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E228">
         <v>3</v>
@@ -8676,13 +11034,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D229" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E229">
         <v>3</v>
@@ -8693,13 +11051,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C230" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D230" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="E230">
         <v>3</v>
@@ -8710,13 +11068,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D231" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E231">
         <v>3</v>
@@ -8727,13 +11085,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C232" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D232" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -8744,13 +11102,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D233" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E233">
         <v>3</v>
@@ -8761,13 +11119,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C234" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D234" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="E234">
         <v>3</v>
@@ -8778,13 +11136,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D235" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -8795,13 +11153,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C236" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E236">
         <v>3</v>
@@ -8812,13 +11170,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C237" t="s">
         <v>42</v>
       </c>
       <c r="D237" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -8829,13 +11187,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D238" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E238">
         <v>3</v>
@@ -8846,13 +11204,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C239" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D239" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E239">
         <v>3</v>
@@ -8863,13 +11221,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C240" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D240" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E240">
         <v>3</v>
@@ -8880,13 +11238,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C241" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D241" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="E241">
         <v>3</v>
@@ -8897,13 +11255,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C242" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D242" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="E242">
         <v>3</v>
@@ -8914,13 +11272,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D243" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E243">
         <v>3</v>
@@ -8931,13 +11289,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D244" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="E244">
         <v>3</v>
@@ -8948,13 +11306,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D245" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="E245">
         <v>3</v>
@@ -8965,13 +11323,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D246" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -8982,13 +11340,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C247" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D247" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E247">
         <v>3</v>
@@ -8999,13 +11357,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C248" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D248" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E248">
         <v>3</v>
@@ -9016,13 +11374,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C249" t="s">
         <v>37</v>
       </c>
       <c r="D249" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -9033,13 +11391,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C250" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D250" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E250">
         <v>3</v>
@@ -9050,13 +11408,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="C251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D251" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -9067,13 +11425,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C252" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D252" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E252">
         <v>3</v>
@@ -9084,13 +11442,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C253" t="s">
         <v>37</v>
       </c>
       <c r="D253" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E253">
         <v>3</v>
@@ -9101,13 +11459,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C254" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D254" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E254">
         <v>3</v>
@@ -9118,13 +11476,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C255" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D255" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E255">
         <v>3</v>
@@ -9135,13 +11493,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D256" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -9152,13 +11510,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="C257" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D257" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E257">
         <v>3</v>
@@ -9169,13 +11527,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="C258" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D258" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E258">
         <v>3</v>
@@ -9186,13 +11544,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="C259" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D259" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -9203,13 +11561,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D260" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="E260">
         <v>3</v>
@@ -9220,13 +11578,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="C261" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D261" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -9237,13 +11595,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C262" t="s">
         <v>36</v>
       </c>
       <c r="D262" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E262">
         <v>3</v>
@@ -9254,13 +11612,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C263" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D263" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E263">
         <v>3</v>
@@ -9271,13 +11629,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C264" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D264" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E264">
         <v>3</v>
@@ -9288,13 +11646,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C265" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D265" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E265">
         <v>3</v>
@@ -9305,13 +11663,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C266" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D266" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E266">
         <v>3</v>
@@ -9322,13 +11680,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C267" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D267" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E267">
         <v>3</v>
@@ -9339,13 +11697,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C268" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D268" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E268">
         <v>3</v>
@@ -9356,13 +11714,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C269" t="s">
         <v>36</v>
       </c>
       <c r="D269" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -9373,15 +11731,644 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C270" t="s">
         <v>37</v>
       </c>
       <c r="D270" t="s">
+        <v>125</v>
+      </c>
+      <c r="E270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>231</v>
+      </c>
+      <c r="C271" t="s">
+        <v>37</v>
+      </c>
+      <c r="D271" t="s">
+        <v>126</v>
+      </c>
+      <c r="E271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>232</v>
+      </c>
+      <c r="C272" t="s">
+        <v>36</v>
+      </c>
+      <c r="D272" t="s">
+        <v>127</v>
+      </c>
+      <c r="E272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>233</v>
+      </c>
+      <c r="C273" t="s">
+        <v>46</v>
+      </c>
+      <c r="D273" t="s">
+        <v>128</v>
+      </c>
+      <c r="E273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>234</v>
+      </c>
+      <c r="C274" t="s">
+        <v>42</v>
+      </c>
+      <c r="D274" t="s">
+        <v>129</v>
+      </c>
+      <c r="E274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>201</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" t="s">
+        <v>130</v>
+      </c>
+      <c r="E275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>235</v>
+      </c>
+      <c r="C276" t="s">
+        <v>38</v>
+      </c>
+      <c r="D276" t="s">
+        <v>113</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>236</v>
+      </c>
+      <c r="C277" t="s">
+        <v>37</v>
+      </c>
+      <c r="D277" t="s">
+        <v>131</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>237</v>
+      </c>
+      <c r="C278" t="s">
+        <v>47</v>
+      </c>
+      <c r="D278" t="s">
+        <v>238</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>239</v>
+      </c>
+      <c r="C279" t="s">
+        <v>38</v>
+      </c>
+      <c r="D279" t="s">
+        <v>132</v>
+      </c>
+      <c r="E279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>240</v>
+      </c>
+      <c r="C280" t="s">
+        <v>34</v>
+      </c>
+      <c r="D280" t="s">
+        <v>133</v>
+      </c>
+      <c r="E280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>241</v>
+      </c>
+      <c r="C281" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281" t="s">
+        <v>242</v>
+      </c>
+      <c r="E281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>220</v>
+      </c>
+      <c r="C282" t="s">
+        <v>36</v>
+      </c>
+      <c r="D282" t="s">
+        <v>134</v>
+      </c>
+      <c r="E282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>235</v>
+      </c>
+      <c r="C283" t="s">
+        <v>38</v>
+      </c>
+      <c r="D283" t="s">
+        <v>114</v>
+      </c>
+      <c r="E283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>243</v>
+      </c>
+      <c r="C284" t="s">
+        <v>37</v>
+      </c>
+      <c r="D284" t="s">
+        <v>121</v>
+      </c>
+      <c r="E284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>244</v>
+      </c>
+      <c r="C285" t="s">
+        <v>48</v>
+      </c>
+      <c r="D285" t="s">
+        <v>135</v>
+      </c>
+      <c r="E285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>245</v>
+      </c>
+      <c r="C286" t="s">
+        <v>37</v>
+      </c>
+      <c r="D286" t="s">
+        <v>136</v>
+      </c>
+      <c r="E286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>229</v>
+      </c>
+      <c r="C287" t="s">
+        <v>36</v>
+      </c>
+      <c r="D287" t="s">
+        <v>137</v>
+      </c>
+      <c r="E287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>246</v>
+      </c>
+      <c r="C288" t="s">
+        <v>37</v>
+      </c>
+      <c r="D288" t="s">
+        <v>138</v>
+      </c>
+      <c r="E288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>247</v>
+      </c>
+      <c r="C289" t="s">
+        <v>42</v>
+      </c>
+      <c r="D289" t="s">
+        <v>139</v>
+      </c>
+      <c r="E289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>228</v>
+      </c>
+      <c r="C290" t="s">
+        <v>37</v>
+      </c>
+      <c r="D290" t="s">
+        <v>140</v>
+      </c>
+      <c r="E290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>248</v>
+      </c>
+      <c r="C291" t="s">
+        <v>43</v>
+      </c>
+      <c r="D291" t="s">
+        <v>141</v>
+      </c>
+      <c r="E291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>249</v>
+      </c>
+      <c r="C292" t="s">
+        <v>40</v>
+      </c>
+      <c r="D292" t="s">
+        <v>142</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>225</v>
+      </c>
+      <c r="C293" t="s">
+        <v>36</v>
+      </c>
+      <c r="D293" t="s">
+        <v>123</v>
+      </c>
+      <c r="E293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>250</v>
+      </c>
+      <c r="C294" t="s">
+        <v>36</v>
+      </c>
+      <c r="D294" t="s">
+        <v>143</v>
+      </c>
+      <c r="E294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>251</v>
+      </c>
+      <c r="C295" t="s">
+        <v>42</v>
+      </c>
+      <c r="D295" t="s">
+        <v>144</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>252</v>
+      </c>
+      <c r="C296" t="s">
+        <v>37</v>
+      </c>
+      <c r="D296" t="s">
+        <v>145</v>
+      </c>
+      <c r="E296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>232</v>
+      </c>
+      <c r="C297" t="s">
+        <v>36</v>
+      </c>
+      <c r="D297" t="s">
+        <v>146</v>
+      </c>
+      <c r="E297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>253</v>
+      </c>
+      <c r="C298" t="s">
+        <v>41</v>
+      </c>
+      <c r="D298" t="s">
+        <v>147</v>
+      </c>
+      <c r="E298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>220</v>
+      </c>
+      <c r="C299" t="s">
+        <v>36</v>
+      </c>
+      <c r="D299" t="s">
+        <v>148</v>
+      </c>
+      <c r="E299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>254</v>
+      </c>
+      <c r="C300" t="s">
+        <v>49</v>
+      </c>
+      <c r="D300" t="s">
+        <v>149</v>
+      </c>
+      <c r="E300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>255</v>
+      </c>
+      <c r="C301" t="s">
+        <v>49</v>
+      </c>
+      <c r="D301" t="s">
+        <v>150</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>194</v>
+      </c>
+      <c r="C302" t="s">
+        <v>37</v>
+      </c>
+      <c r="D302" t="s">
+        <v>151</v>
+      </c>
+      <c r="E302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>256</v>
+      </c>
+      <c r="C303" t="s">
+        <v>42</v>
+      </c>
+      <c r="D303" t="s">
+        <v>152</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>257</v>
+      </c>
+      <c r="C304" t="s">
+        <v>50</v>
+      </c>
+      <c r="D304" t="s">
+        <v>153</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>258</v>
+      </c>
+      <c r="C305" t="s">
+        <v>38</v>
+      </c>
+      <c r="D305" t="s">
+        <v>154</v>
+      </c>
+      <c r="E305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>205</v>
+      </c>
+      <c r="C306" t="s">
+        <v>36</v>
+      </c>
+      <c r="D306" t="s">
+        <v>155</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>226</v>
+      </c>
+      <c r="C307" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" t="s">
         <v>259</v>
       </c>
-      <c r="E270">
+      <c r="E307">
         <v>3</v>
       </c>
     </row>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\WebScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EF4BD-09BA-4770-B13B-83F8A7891ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91CD8F-5B30-41C4-8B84-FCF26F3128B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="670">
   <si>
     <t>Laptop Brand</t>
   </si>
@@ -1417,6 +1417,627 @@
   </si>
   <si>
     <t xml:space="preserve">Huawei Matebook 13 + MIFI- Computadora portatil ultradelgada 13" (Intel Core i5-8265U, 8GB RAM + 512GB SSD, Nvidia </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71YlCIAhj6L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv Samsung Crystal 4K UHD 43" Smart Tv UN43TU6900FXZX (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/814PQSUje3L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Sony 55" 4K UHD Smart Tv LED 55X720F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv Samsung Crystal 4K UHD 55" Smart Tv UN55TU6900FXZX (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81vmLvs6BrL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 55" 4K UHD Smart Tv QLED QN55Q60TAF ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61AKm-cjX7L._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Hyundai 32" HD Smart TV LED HYLED3246NiM </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41PutJfxK9L._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL Pantalla 32 Pulgadas Smart TV Roku 32S331-MX (Reacondicionado) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51fwjQCRxvL._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG Television de 65" SmarTV Pantalla 4K Ultra HD |Magic Remote |HDR10|Dolby Vision | Google Assistant | Alexa | Apple </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/814PQSUje3L._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71YlCIAhj6L._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81vmLvs6BrL._AC_UL85_SR85,85_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61AKm-cjX7L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 58" 4K Cristal UHD Smart TV LED UN58TU6900FXZX (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71TJZZ%2Bd2fL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 32" HD Smart TV LED UN32T4300AFXZX (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91EAb3fKMBL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 50" 4K UHD Smart Tv LED UN50TU7000FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/916Ts4fDi5L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 32" HD Smart TV LED LH32BETBLGKXZX (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71KefL8QawL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv Samsung Crystal 4K UHD 55" Smart Tv UN55TU8000FXZX Alexa built-in (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41simpaCMrL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 43 pulgadas Smart TV con Sistema Operativo Roku Ultra Alta Definicion Pantalla Wi-Fi LED 1080P con Puertos HDMI </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81UYqty05XL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Sony 43" 4K UHD Smart Tv LED KDL-43X720F </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71VlPnHMSvL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 55" 4K UHD Smart Tv LED UN55TU8500FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81-ieVP4QZL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Pantalla 49 4K Ultra HD, Smart TV HDR KDL-49X720F </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/719%2BSi5v4AL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 43" FHD Smart TV LED 43LM6300PUB 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71HQa5eW0mL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 50" 4K Smart TV LED 50UN8000PUB 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61KUFcjQh1L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 55" 4K Smart TV QLED QN55Q70 (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 65" 4K UHD Smart Tv QLED QN65Q60TAFXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61J0HIHi%2B7L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 65" 4K UHD Smart Tv QLED Qn65Q70TAFXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91aYCF4I1OL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 75" 4K UHD Smart Tv LED UN75TU7000FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61ZiJDyp-gL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 43" 4K Smart TV LED 43UN7100PUA 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71GmEiIcaHL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 60" 4K Smart TV LED 60UN7300PUA 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/713rfj7KKSL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 55" 4K Smart TV LED 55UN7300PUC 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71H96gPbdhL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 32" Serie H5F1 VIDAA HD Smart TV (32H5F1, 2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61YiMZJsjyL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV TCL 43" 4K UHD Roku Tv LED 43S425-MX </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/715yuClTJ6L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>SANSUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANSUI Smart TV 32 LED HD Netflix Dolby Audio SMX-32P28NF </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91-gHZ%2BX9YL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 58" 4K UHD Smart Tv LED UN58TU7000FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71p18I-YMzL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 55" 4K Smart TV LED NanoCell 55NANO81UNA 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61XuhC2fyhL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 32H4000FM Serie 4. 32" HD, Smart TV, Roku TV, HDR, Roku Search, (2019) (32") (Renewed) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81-%2BjmXSNyL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Hisense 43" 4K Roku TV LED R6000GM (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV TCL 55" 4K UHD Roku Tv LED 55S425-MX </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61nwkFpUBLL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony BRAVIA KDL-32W600D. Pantalla de 32", HD ready Smart TV </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61%2BDzdrlc-L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 55" 4K Smart TV LED 55UN7100PUA 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 43" 4K UHD Smart Tv LED UN43TU7000FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51XOh7jvPbL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 40H5500F Android TV Smart TV 40", 1080p, Built-in Wi-Fi, 2019, Color Negro </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61aGRM8DJOL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 50R6000GM Serie R6 50" 4K Uhd, Smart TV, Roku TV, Hdr10, Roku Search, (2020) (50") </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71sJNFHpYoL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 32H4F 32-Inch LED Roku Smart TV with Alexa and Google Assistant Compatibility (2020) (Reacondicionado) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61SONhtHOxL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 49" 4K Smart TV LED 49UN7100PUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 65" 4K UHD Smart Tv LED Un65Tu7000Fxzx ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71%2B5enz53sL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 49" 4K Smart TV LED NanoCell 49NANO81UNA 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81SZnYKocPL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 65" Serie H8G Android 4K ULED Smart TV con Asistente de Google (65H8G, 2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71VfecGjmRL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 32" HD Smart TV LED 32LM630BPUB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91mcHVhh9KL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 55" 4K UHD Smart Tv LED UN55TU7000FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71gzlKauNQL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 32H4F 32-Inch LED Roku Smart TV with Alexa and Google Assistant Compatibility (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/31pO-n1BnTL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Pantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla DE 40" Full HD Smart TV </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61AVcTBkE1L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL Pantalla 65" 4K UHD Smart TV HDR con Dolby Vision 65A527 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/713G4gIXPiL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV TCL 32" HD Android TV LED 32A325 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41PutJfxK9L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51fwjQCRxvL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41EE3d-Ti5L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Hisense 40" Full HD Smart ROKU 40H4030F Renewed </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81kOW6%2Bxa%2BL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 50" 4K Th Frame Smart TV QLED QN50LS03TAFXZX (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL Pantalla 504K UHD Smart TV con Sistema Android TV y Dolby Vision 50A527 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81wLGLKUyzL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Hisense 75" 4K Android TV ULED 75H8G (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/615-j1Da7TL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 50" 4K UHD Smart Tv LED UN50TU8500FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71sOVJhdjaL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV 55" TCL 4K UHD Smart Android TV Dolby digital 55A527 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61OQIfcV3uL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Television de 55" SmartTV Pantalla 4k UltraHD | HDR |OS Android | 4K X-Reality Pro | Triluminos Display | Google </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61FcdiByYyL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 43" 4K Smart TV LED 43UM7100PUA </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61pvw-RG2TL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense Pantalla 58" Smart TV UHD 4K 58H6500E </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71m-zocopgL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 70" 4K UHD Smart Tv LED UN70RU7100FXZX </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71ajmBfSdGL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Sony 55" 4K UHD Android TV LED XBR-55X900H ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81V30ekeeeL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 40H5G Smart TV 40" FULL HD, 1080p, Built-in Wi-Fi, 2020, Color Negro </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71nlsCkthmL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 86" 4K Smart TV LED 86UN8570PUB 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71bOjFVAc%2BL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG UHD TV AI ThinQ 4K 65" 65UN8050PUD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61xX6utdh3L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 55" 4K UHD Smart Tv QLED QN55Q80TAFXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71HIxCeqDdL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL Pantalla 55" UHD 4k Dolby Atmos QLED Android Smart TV - 55Q637 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 75R6000GM Serie R6 75" 4K Uhd, Smart TV, Roku TV, Hdr10, Roku Search, (2020) (75") </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71OMKXaDAfL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 55" 4K Smart TV LED 55UN8050PUD 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91-kAh36iML._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG Smart TV Pantalla 43 Pulgadas 4K HDR con Alexa, Google Assistant, Airplay2, Netlix, Youtube, Bluetooth (Renewed) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71PMTyxy4-L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 70" 4K Smart TV LED 70UN7100PUA 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/8161gQWMnNL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 32H5500F Class H55 Series Android Smart TV con Mando a Distancia de Voz (Modelo 2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71oRmoEpcBL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Sansui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sansui TV LED 32", Mod SMX32Z1 HD, Entradas 2 x HDMI, USB 2.0 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51MiAu6aQfL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG 70 Inches 4K Ultra HD Inteligente con Alexa integrada (2019) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71HeuzXVkTL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Sony 65" 4K UHD Smart Tv LED XBR-65X850G ( 2020 ) +Barra de sonido HT-S100F </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71%2Bk6ZrewrL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Samsung 65" 4K UHD Smart Tv LED UN65TU8000FXZX ( 2020 ) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81t8Ih3X9gL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 43" Smart TV 4K Televisor con Sistema Roku Pantalla Ultra HD LED, Cuenta con Ethernet, Wi-Fi, Puertos HDMI, USB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71IibZoYDFL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 50" 4K Smart TV LED 50UN7300PUC 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41LJdijZZ2L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV TCL 43" 4K Android TV LED 43A423 (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81bP0QXHE0L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Pantalla 55" - 4K UHD|HDR - X1 4K HDR Processor - Android TV </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Z7SDS7wNL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Pantalla 55" - 4K HDR Full Array LED - X1 Ultimate - Android TV </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/817CAyMQ2jL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Pantalla 50Smart Tv UHD 4K UN50RU7100FXZX (2019) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71zl%2Bt2NcQL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 65" 4K Smart TV LED 65UN7300PUC 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61xkW0HMr%2BL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL Pantalla 40" Pulgadas Smart TV ROKU </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51AUI3bM81L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 58H6500G Serie 6 58\" 4K UHD, Smart TV, Bluetooth (Solo Audio) Android TV, HDR10, (2020) (58\") </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/917SylT%2BHTL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 32H3D Televisor LED, 720p HD, color negro </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71CmmhU7V7L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 65" 4K Smart TV LED 65Nano81Una 2020 </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91zmQQ6C09L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG Electronics 24LM530S-PU WebOS de 24 Pulgadas HD de 3.5 Smart TV </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81WHxI7O5iL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 40 Serie H5F VIDAA Smart TV FHD (40H5F) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51VjbWz0yiL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCA Televisor 40 Pulgadas 1080p Full HD TV, Pantalla LED - RLDED4016A (Renovada) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41NkqRWgYiL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Makena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makena Pantalla 24A2 24" HD Puerto USB HDMI </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/6163zwqUltL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense Smart TV 65inch 4K 65R6E (Renewed) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61aAEHge0BL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL 32"Clase 720P HD LED Roku Smart TV Serie 3 |Alexa y Google Assistant| 32S331 (Renewed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense 43R6000GM Serie R6 43" 4K Uhd, Smart TV, Roku TV, Hdr10, Roku Search, (2020) (43") (43") </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Skj2p2B%2BL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Hyundai 50" 4K UHD Smart Tv LED Hyled5014N4Km </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81im1XH0fXL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Hisense 50" 4K Smart TV LED 50H6G (2020) </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71TaSzqCl5L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Seiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seiki Pantalla 32 SC-32HS880N Television Led Full HD HDMI USB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81hR-d2IOeL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony XBR-65X850G - clase 65 pulgadas (64.5 pulgadas de vision) - TV LED serie X850G - Smart TV - Android TV - 4K UHD </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/712dWGCI6tL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANSUI Monitor TV 22" Led SMX2219 HDMI USB </t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71AtB6u9TnL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV LG 55" 4K Smart TV Oled Oled55Bxpua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Hyundai 55" 4K UHD Smart Tv LED Hyled5519N4Km </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV TCL 50" 4K UHD Roku Tv LED 50S425 </t>
+  </si>
+  <si>
+    <t>TV Img</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
   </si>
 </sst>
 </file>
@@ -6058,1370 +6679,2947 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E6C261-8B8B-40D6-AA26-627203659E2A}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D97"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>83</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>57</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>62</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>64</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>65</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>68</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>69</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>71</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>65</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>72</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>73</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>65</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>74</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>75</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>76</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>77</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>78</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>80</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>58</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>81</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>83</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>54</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>53</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>56</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>57</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>59</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>56</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>60</v>
       </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>61</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>62</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>63</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>64</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>65</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>66</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>67</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>65</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>68</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>69</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>65</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>70</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>71</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>65</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>72</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>53</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>73</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>74</v>
       </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>75</v>
       </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>76</v>
       </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>65</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>77</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>79</v>
       </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>53</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>80</v>
       </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>58</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>81</v>
       </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>53</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>82</v>
       </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>53</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>83</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>53</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>54</v>
       </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>53</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>55</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>56</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>57</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>58</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>59</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>56</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>60</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>61</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>62</v>
       </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>63</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>64</v>
       </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>65</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>66</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>56</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>67</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>65</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>68</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>58</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>69</v>
       </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>65</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>70</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>65</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>71</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>65</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>72</v>
       </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>53</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>73</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>65</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>74</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>65</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>75</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>53</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>76</v>
       </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>65</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>77</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>78</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>79</v>
       </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>53</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>80</v>
       </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>58</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>81</v>
       </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>53</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>82</v>
       </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>83</v>
       </c>
-      <c r="D97">
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>463</v>
+      </c>
+      <c r="C99" t="s">
+        <v>464</v>
+      </c>
+      <c r="D99" t="s">
+        <v>465</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>466</v>
+      </c>
+      <c r="C100" t="s">
+        <v>467</v>
+      </c>
+      <c r="D100" t="s">
+        <v>468</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>463</v>
+      </c>
+      <c r="C101" t="s">
+        <v>464</v>
+      </c>
+      <c r="D101" t="s">
+        <v>469</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>470</v>
+      </c>
+      <c r="C102" t="s">
+        <v>467</v>
+      </c>
+      <c r="D102" t="s">
+        <v>471</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>472</v>
+      </c>
+      <c r="C103" t="s">
+        <v>467</v>
+      </c>
+      <c r="D103" t="s">
+        <v>473</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>474</v>
+      </c>
+      <c r="C104" t="s">
+        <v>475</v>
+      </c>
+      <c r="D104" t="s">
+        <v>476</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>477</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>478</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>479</v>
+      </c>
+      <c r="C106" t="s">
+        <v>467</v>
+      </c>
+      <c r="D106" t="s">
+        <v>468</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>480</v>
+      </c>
+      <c r="C107" t="s">
+        <v>464</v>
+      </c>
+      <c r="D107" t="s">
+        <v>465</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>481</v>
+      </c>
+      <c r="C108" t="s">
+        <v>467</v>
+      </c>
+      <c r="D108" t="s">
+        <v>471</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>482</v>
+      </c>
+      <c r="C109" t="s">
+        <v>467</v>
+      </c>
+      <c r="D109" t="s">
+        <v>473</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>463</v>
+      </c>
+      <c r="C110" t="s">
+        <v>467</v>
+      </c>
+      <c r="D110" t="s">
+        <v>483</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>484</v>
+      </c>
+      <c r="C111" t="s">
+        <v>467</v>
+      </c>
+      <c r="D111" t="s">
+        <v>485</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>486</v>
+      </c>
+      <c r="C112" t="s">
+        <v>467</v>
+      </c>
+      <c r="D112" t="s">
+        <v>487</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>488</v>
+      </c>
+      <c r="C113" t="s">
+        <v>467</v>
+      </c>
+      <c r="D113" t="s">
+        <v>489</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>490</v>
+      </c>
+      <c r="C114" t="s">
+        <v>464</v>
+      </c>
+      <c r="D114" t="s">
+        <v>491</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>492</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" t="s">
+        <v>493</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>494</v>
+      </c>
+      <c r="C116" t="s">
+        <v>467</v>
+      </c>
+      <c r="D116" t="s">
+        <v>495</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>496</v>
+      </c>
+      <c r="C117" t="s">
+        <v>467</v>
+      </c>
+      <c r="D117" t="s">
+        <v>497</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>498</v>
+      </c>
+      <c r="C118" t="s">
+        <v>499</v>
+      </c>
+      <c r="D118" t="s">
+        <v>500</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>501</v>
+      </c>
+      <c r="C119" t="s">
+        <v>467</v>
+      </c>
+      <c r="D119" t="s">
+        <v>502</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>503</v>
+      </c>
+      <c r="C120" t="s">
+        <v>467</v>
+      </c>
+      <c r="D120" t="s">
+        <v>504</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>505</v>
+      </c>
+      <c r="C121" t="s">
+        <v>467</v>
+      </c>
+      <c r="D121" t="s">
+        <v>506</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>470</v>
+      </c>
+      <c r="C122" t="s">
+        <v>467</v>
+      </c>
+      <c r="D122" t="s">
+        <v>507</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>508</v>
+      </c>
+      <c r="C123" t="s">
+        <v>467</v>
+      </c>
+      <c r="D123" t="s">
+        <v>509</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>510</v>
+      </c>
+      <c r="C124" t="s">
+        <v>467</v>
+      </c>
+      <c r="D124" t="s">
+        <v>511</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>512</v>
+      </c>
+      <c r="C125" t="s">
+        <v>467</v>
+      </c>
+      <c r="D125" t="s">
+        <v>513</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>514</v>
+      </c>
+      <c r="C126" t="s">
+        <v>467</v>
+      </c>
+      <c r="D126" t="s">
+        <v>515</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>516</v>
+      </c>
+      <c r="C127" t="s">
+        <v>467</v>
+      </c>
+      <c r="D127" t="s">
+        <v>517</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>518</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>519</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>520</v>
+      </c>
+      <c r="C129" t="s">
+        <v>467</v>
+      </c>
+      <c r="D129" t="s">
+        <v>521</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>522</v>
+      </c>
+      <c r="C130" t="s">
+        <v>523</v>
+      </c>
+      <c r="D130" t="s">
+        <v>524</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>525</v>
+      </c>
+      <c r="C131" t="s">
+        <v>467</v>
+      </c>
+      <c r="D131" t="s">
+        <v>526</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>527</v>
+      </c>
+      <c r="C132" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" t="s">
+        <v>528</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>529</v>
+      </c>
+      <c r="C133" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" t="s">
+        <v>530</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134" t="s">
+        <v>467</v>
+      </c>
+      <c r="D134" t="s">
+        <v>532</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>520</v>
+      </c>
+      <c r="C135" t="s">
+        <v>467</v>
+      </c>
+      <c r="D135" t="s">
+        <v>533</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>534</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
+        <v>535</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>536</v>
+      </c>
+      <c r="C137" t="s">
+        <v>467</v>
+      </c>
+      <c r="D137" t="s">
+        <v>537</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>525</v>
+      </c>
+      <c r="C138" t="s">
+        <v>467</v>
+      </c>
+      <c r="D138" t="s">
+        <v>538</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" t="s">
+        <v>540</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>541</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" t="s">
+        <v>542</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>543</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
+        <v>544</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>545</v>
+      </c>
+      <c r="C142" t="s">
+        <v>467</v>
+      </c>
+      <c r="D142" t="s">
+        <v>546</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>510</v>
+      </c>
+      <c r="C143" t="s">
+        <v>467</v>
+      </c>
+      <c r="D143" t="s">
+        <v>547</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>548</v>
+      </c>
+      <c r="C144" t="s">
+        <v>467</v>
+      </c>
+      <c r="D144" t="s">
+        <v>549</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>550</v>
+      </c>
+      <c r="C145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" t="s">
+        <v>551</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>552</v>
+      </c>
+      <c r="C146" t="s">
+        <v>467</v>
+      </c>
+      <c r="D146" t="s">
+        <v>553</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>554</v>
+      </c>
+      <c r="C147" t="s">
+        <v>467</v>
+      </c>
+      <c r="D147" t="s">
+        <v>555</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>556</v>
+      </c>
+      <c r="C148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" t="s">
+        <v>557</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>558</v>
+      </c>
+      <c r="C149" t="s">
+        <v>559</v>
+      </c>
+      <c r="D149" t="s">
+        <v>560</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>561</v>
+      </c>
+      <c r="C150" t="s">
+        <v>475</v>
+      </c>
+      <c r="D150" t="s">
+        <v>562</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>563</v>
+      </c>
+      <c r="C151" t="s">
+        <v>467</v>
+      </c>
+      <c r="D151" t="s">
+        <v>564</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>565</v>
+      </c>
+      <c r="C152" t="s">
+        <v>475</v>
+      </c>
+      <c r="D152" t="s">
+        <v>476</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>566</v>
+      </c>
+      <c r="C153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>478</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>567</v>
+      </c>
+      <c r="C154" t="s">
+        <v>467</v>
+      </c>
+      <c r="D154" t="s">
+        <v>568</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>569</v>
+      </c>
+      <c r="C155" t="s">
+        <v>467</v>
+      </c>
+      <c r="D155" t="s">
+        <v>570</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>561</v>
+      </c>
+      <c r="C156" t="s">
+        <v>475</v>
+      </c>
+      <c r="D156" t="s">
+        <v>571</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>572</v>
+      </c>
+      <c r="C157" t="s">
+        <v>467</v>
+      </c>
+      <c r="D157" t="s">
+        <v>573</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>574</v>
+      </c>
+      <c r="C158" t="s">
+        <v>467</v>
+      </c>
+      <c r="D158" t="s">
+        <v>575</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" t="s">
+        <v>467</v>
+      </c>
+      <c r="D159" t="s">
+        <v>473</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" t="s">
+        <v>475</v>
+      </c>
+      <c r="D160" t="s">
+        <v>476</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" t="s">
+        <v>478</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>479</v>
+      </c>
+      <c r="C162" t="s">
+        <v>467</v>
+      </c>
+      <c r="D162" t="s">
+        <v>468</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" t="s">
+        <v>464</v>
+      </c>
+      <c r="D163" t="s">
+        <v>465</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" t="s">
+        <v>467</v>
+      </c>
+      <c r="D164" t="s">
+        <v>471</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>576</v>
+      </c>
+      <c r="C165" t="s">
+        <v>467</v>
+      </c>
+      <c r="D165" t="s">
+        <v>577</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>578</v>
+      </c>
+      <c r="C166" t="s">
+        <v>499</v>
+      </c>
+      <c r="D166" t="s">
+        <v>579</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>580</v>
+      </c>
+      <c r="C167" t="s">
+        <v>467</v>
+      </c>
+      <c r="D167" t="s">
+        <v>581</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>582</v>
+      </c>
+      <c r="C168" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" t="s">
+        <v>583</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>584</v>
+      </c>
+      <c r="C169" t="s">
+        <v>467</v>
+      </c>
+      <c r="D169" t="s">
+        <v>585</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>586</v>
+      </c>
+      <c r="C170" t="s">
+        <v>467</v>
+      </c>
+      <c r="D170" t="s">
+        <v>587</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>588</v>
+      </c>
+      <c r="C171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" t="s">
+        <v>589</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>590</v>
+      </c>
+      <c r="C172" t="s">
+        <v>467</v>
+      </c>
+      <c r="D172" t="s">
+        <v>591</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>592</v>
+      </c>
+      <c r="C173" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" t="s">
+        <v>593</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>594</v>
+      </c>
+      <c r="C174" t="s">
+        <v>467</v>
+      </c>
+      <c r="D174" t="s">
+        <v>595</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>596</v>
+      </c>
+      <c r="C175" t="s">
+        <v>475</v>
+      </c>
+      <c r="D175" t="s">
+        <v>597</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>541</v>
+      </c>
+      <c r="C176" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" t="s">
+        <v>598</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>599</v>
+      </c>
+      <c r="C177" t="s">
+        <v>467</v>
+      </c>
+      <c r="D177" t="s">
+        <v>600</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>601</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" t="s">
+        <v>602</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>603</v>
+      </c>
+      <c r="C179" t="s">
+        <v>467</v>
+      </c>
+      <c r="D179" t="s">
+        <v>604</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>605</v>
+      </c>
+      <c r="C180" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" t="s">
+        <v>606</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>607</v>
+      </c>
+      <c r="C181" t="s">
+        <v>608</v>
+      </c>
+      <c r="D181" t="s">
+        <v>609</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>610</v>
+      </c>
+      <c r="C182" t="s">
+        <v>45</v>
+      </c>
+      <c r="D182" t="s">
+        <v>611</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>612</v>
+      </c>
+      <c r="C183" t="s">
+        <v>467</v>
+      </c>
+      <c r="D183" t="s">
+        <v>613</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>614</v>
+      </c>
+      <c r="C184" t="s">
+        <v>467</v>
+      </c>
+      <c r="D184" t="s">
+        <v>615</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>616</v>
+      </c>
+      <c r="C185" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" t="s">
+        <v>617</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>618</v>
+      </c>
+      <c r="C186" t="s">
+        <v>467</v>
+      </c>
+      <c r="D186" t="s">
+        <v>619</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>620</v>
+      </c>
+      <c r="C187" t="s">
+        <v>467</v>
+      </c>
+      <c r="D187" t="s">
+        <v>621</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>622</v>
+      </c>
+      <c r="C188" t="s">
+        <v>499</v>
+      </c>
+      <c r="D188" t="s">
+        <v>623</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>624</v>
+      </c>
+      <c r="C189" t="s">
+        <v>499</v>
+      </c>
+      <c r="D189" t="s">
+        <v>625</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>626</v>
+      </c>
+      <c r="C190" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" t="s">
+        <v>627</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>628</v>
+      </c>
+      <c r="C191" t="s">
+        <v>467</v>
+      </c>
+      <c r="D191" t="s">
+        <v>629</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>630</v>
+      </c>
+      <c r="C192" t="s">
+        <v>475</v>
+      </c>
+      <c r="D192" t="s">
+        <v>631</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>632</v>
+      </c>
+      <c r="C193" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193" t="s">
+        <v>633</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>634</v>
+      </c>
+      <c r="C194" t="s">
+        <v>42</v>
+      </c>
+      <c r="D194" t="s">
+        <v>635</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>636</v>
+      </c>
+      <c r="C195" t="s">
+        <v>467</v>
+      </c>
+      <c r="D195" t="s">
+        <v>637</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>638</v>
+      </c>
+      <c r="C196" t="s">
+        <v>45</v>
+      </c>
+      <c r="D196" t="s">
+        <v>639</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>640</v>
+      </c>
+      <c r="C197" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" t="s">
+        <v>641</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>642</v>
+      </c>
+      <c r="C198" t="s">
+        <v>643</v>
+      </c>
+      <c r="D198" t="s">
+        <v>644</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>645</v>
+      </c>
+      <c r="C199" t="s">
+        <v>646</v>
+      </c>
+      <c r="D199" t="s">
+        <v>647</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>648</v>
+      </c>
+      <c r="C200" t="s">
+        <v>42</v>
+      </c>
+      <c r="D200" t="s">
+        <v>649</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>650</v>
+      </c>
+      <c r="C201" t="s">
+        <v>475</v>
+      </c>
+      <c r="D201" t="s">
+        <v>651</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>541</v>
+      </c>
+      <c r="C202" t="s">
+        <v>42</v>
+      </c>
+      <c r="D202" t="s">
+        <v>652</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>653</v>
+      </c>
+      <c r="C203" t="s">
+        <v>467</v>
+      </c>
+      <c r="D203" t="s">
+        <v>654</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>655</v>
+      </c>
+      <c r="C204" t="s">
+        <v>467</v>
+      </c>
+      <c r="D204" t="s">
+        <v>656</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>657</v>
+      </c>
+      <c r="C205" t="s">
+        <v>658</v>
+      </c>
+      <c r="D205" t="s">
+        <v>659</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>660</v>
+      </c>
+      <c r="C206" t="s">
+        <v>499</v>
+      </c>
+      <c r="D206" t="s">
+        <v>661</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>662</v>
+      </c>
+      <c r="C207" t="s">
+        <v>523</v>
+      </c>
+      <c r="D207" t="s">
+        <v>663</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>664</v>
+      </c>
+      <c r="C208" t="s">
+        <v>467</v>
+      </c>
+      <c r="D208" t="s">
+        <v>665</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>653</v>
+      </c>
+      <c r="C209" t="s">
+        <v>467</v>
+      </c>
+      <c r="D209" t="s">
+        <v>666</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>520</v>
+      </c>
+      <c r="C210" t="s">
+        <v>467</v>
+      </c>
+      <c r="D210" t="s">
+        <v>667</v>
+      </c>
+      <c r="E210">
         <v>2</v>
       </c>
     </row>
@@ -7432,16 +9630,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA10815C-0554-4993-9D67-425064E3838F}">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:A307"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7669,8 +9868,8 @@
       <c r="B14" t="s">
         <v>282</v>
       </c>
-      <c r="C14">
-        <v>2020</v>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>283</v>
@@ -8706,8 +10905,8 @@
       <c r="B75" t="s">
         <v>390</v>
       </c>
-      <c r="C75">
-        <v>2020</v>
+      <c r="C75" t="s">
+        <v>26</v>
       </c>
       <c r="D75" t="s">
         <v>391</v>
@@ -8774,8 +10973,8 @@
       <c r="B79" t="s">
         <v>314</v>
       </c>
-      <c r="C79">
-        <v>2020</v>
+      <c r="C79" t="s">
+        <v>288</v>
       </c>
       <c r="D79" t="s">
         <v>399</v>
@@ -8791,8 +10990,8 @@
       <c r="B80" t="s">
         <v>400</v>
       </c>
-      <c r="C80">
-        <v>2020</v>
+      <c r="C80" t="s">
+        <v>288</v>
       </c>
       <c r="D80" t="s">
         <v>401</v>
@@ -9029,8 +11228,8 @@
       <c r="B94" t="s">
         <v>429</v>
       </c>
-      <c r="C94">
-        <v>2020</v>
+      <c r="C94" t="s">
+        <v>288</v>
       </c>
       <c r="D94" t="s">
         <v>430</v>
@@ -9315,11 +11514,14 @@
       <c r="A111">
         <v>110</v>
       </c>
+      <c r="B111" t="s">
+        <v>463</v>
+      </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>464</v>
       </c>
       <c r="D111" t="s">
-        <v>54</v>
+        <v>465</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -9329,11 +11531,14 @@
       <c r="A112">
         <v>111</v>
       </c>
+      <c r="B112" t="s">
+        <v>466</v>
+      </c>
       <c r="C112" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>468</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -9343,11 +11548,14 @@
       <c r="A113">
         <v>112</v>
       </c>
+      <c r="B113" t="s">
+        <v>463</v>
+      </c>
       <c r="C113" t="s">
-        <v>56</v>
+        <v>464</v>
       </c>
       <c r="D113" t="s">
-        <v>57</v>
+        <v>469</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -9357,11 +11565,14 @@
       <c r="A114">
         <v>113</v>
       </c>
+      <c r="B114" t="s">
+        <v>470</v>
+      </c>
       <c r="C114" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D114" t="s">
-        <v>59</v>
+        <v>471</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -9371,11 +11582,14 @@
       <c r="A115">
         <v>114</v>
       </c>
+      <c r="B115" t="s">
+        <v>472</v>
+      </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="D115" t="s">
-        <v>60</v>
+        <v>473</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -9385,11 +11599,14 @@
       <c r="A116">
         <v>115</v>
       </c>
+      <c r="B116" t="s">
+        <v>474</v>
+      </c>
       <c r="C116" t="s">
-        <v>61</v>
+        <v>475</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>476</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -9399,11 +11616,14 @@
       <c r="A117">
         <v>116</v>
       </c>
+      <c r="B117" t="s">
+        <v>477</v>
+      </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>64</v>
+        <v>478</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -9413,11 +11633,14 @@
       <c r="A118">
         <v>117</v>
       </c>
+      <c r="B118" t="s">
+        <v>479</v>
+      </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D118" t="s">
-        <v>66</v>
+        <v>468</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -9427,11 +11650,14 @@
       <c r="A119">
         <v>118</v>
       </c>
+      <c r="B119" t="s">
+        <v>480</v>
+      </c>
       <c r="C119" t="s">
-        <v>56</v>
+        <v>464</v>
       </c>
       <c r="D119" t="s">
-        <v>67</v>
+        <v>465</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -9441,11 +11667,14 @@
       <c r="A120">
         <v>119</v>
       </c>
+      <c r="B120" t="s">
+        <v>481</v>
+      </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>471</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -9455,11 +11684,14 @@
       <c r="A121">
         <v>120</v>
       </c>
+      <c r="B121" t="s">
+        <v>482</v>
+      </c>
       <c r="C121" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D121" t="s">
-        <v>69</v>
+        <v>473</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -9469,11 +11701,14 @@
       <c r="A122">
         <v>121</v>
       </c>
+      <c r="B122" t="s">
+        <v>463</v>
+      </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>483</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -9483,11 +11718,14 @@
       <c r="A123">
         <v>122</v>
       </c>
+      <c r="B123" t="s">
+        <v>484</v>
+      </c>
       <c r="C123" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D123" t="s">
-        <v>71</v>
+        <v>485</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -9497,11 +11735,14 @@
       <c r="A124">
         <v>123</v>
       </c>
+      <c r="B124" t="s">
+        <v>486</v>
+      </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D124" t="s">
-        <v>72</v>
+        <v>487</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -9511,11 +11752,14 @@
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="B125" t="s">
+        <v>488</v>
+      </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D125" t="s">
-        <v>73</v>
+        <v>489</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -9525,11 +11769,14 @@
       <c r="A126">
         <v>125</v>
       </c>
+      <c r="B126" t="s">
+        <v>490</v>
+      </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>464</v>
       </c>
       <c r="D126" t="s">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -9539,11 +11786,14 @@
       <c r="A127">
         <v>126</v>
       </c>
+      <c r="B127" t="s">
+        <v>492</v>
+      </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D127" t="s">
-        <v>75</v>
+        <v>493</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -9553,11 +11803,14 @@
       <c r="A128">
         <v>127</v>
       </c>
+      <c r="B128" t="s">
+        <v>494</v>
+      </c>
       <c r="C128" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D128" t="s">
-        <v>76</v>
+        <v>495</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -9567,11 +11820,14 @@
       <c r="A129">
         <v>128</v>
       </c>
+      <c r="B129" t="s">
+        <v>496</v>
+      </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D129" t="s">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -9581,11 +11837,14 @@
       <c r="A130">
         <v>129</v>
       </c>
+      <c r="B130" t="s">
+        <v>498</v>
+      </c>
       <c r="C130" t="s">
-        <v>78</v>
+        <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -9595,11 +11854,14 @@
       <c r="A131">
         <v>130</v>
       </c>
+      <c r="B131" t="s">
+        <v>501</v>
+      </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -9609,11 +11871,14 @@
       <c r="A132">
         <v>131</v>
       </c>
+      <c r="B132" t="s">
+        <v>503</v>
+      </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D132" t="s">
-        <v>81</v>
+        <v>504</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -9623,11 +11888,14 @@
       <c r="A133">
         <v>132</v>
       </c>
+      <c r="B133" t="s">
+        <v>505</v>
+      </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D133" t="s">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -9637,11 +11905,14 @@
       <c r="A134">
         <v>133</v>
       </c>
+      <c r="B134" t="s">
+        <v>470</v>
+      </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D134" t="s">
-        <v>83</v>
+        <v>507</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -9651,11 +11922,14 @@
       <c r="A135">
         <v>134</v>
       </c>
+      <c r="B135" t="s">
+        <v>508</v>
+      </c>
       <c r="C135" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D135" t="s">
-        <v>54</v>
+        <v>509</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -9665,11 +11939,14 @@
       <c r="A136">
         <v>135</v>
       </c>
+      <c r="B136" t="s">
+        <v>510</v>
+      </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D136" t="s">
-        <v>55</v>
+        <v>511</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -9679,11 +11956,14 @@
       <c r="A137">
         <v>136</v>
       </c>
+      <c r="B137" t="s">
+        <v>512</v>
+      </c>
       <c r="C137" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="D137" t="s">
-        <v>57</v>
+        <v>513</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -9693,11 +11973,14 @@
       <c r="A138">
         <v>137</v>
       </c>
+      <c r="B138" t="s">
+        <v>514</v>
+      </c>
       <c r="C138" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>515</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -9707,11 +11990,14 @@
       <c r="A139">
         <v>138</v>
       </c>
+      <c r="B139" t="s">
+        <v>516</v>
+      </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="D139" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -9721,11 +12007,14 @@
       <c r="A140">
         <v>139</v>
       </c>
+      <c r="B140" t="s">
+        <v>518</v>
+      </c>
       <c r="C140" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
+        <v>519</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -9735,11 +12024,14 @@
       <c r="A141">
         <v>140</v>
       </c>
+      <c r="B141" t="s">
+        <v>520</v>
+      </c>
       <c r="C141" t="s">
-        <v>63</v>
+        <v>467</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>521</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -9749,11 +12041,14 @@
       <c r="A142">
         <v>141</v>
       </c>
+      <c r="B142" t="s">
+        <v>522</v>
+      </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>523</v>
       </c>
       <c r="D142" t="s">
-        <v>66</v>
+        <v>524</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -9763,11 +12058,14 @@
       <c r="A143">
         <v>142</v>
       </c>
+      <c r="B143" t="s">
+        <v>525</v>
+      </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="D143" t="s">
-        <v>67</v>
+        <v>526</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -9777,11 +12075,14 @@
       <c r="A144">
         <v>143</v>
       </c>
+      <c r="B144" t="s">
+        <v>527</v>
+      </c>
       <c r="C144" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>528</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -9791,11 +12092,14 @@
       <c r="A145">
         <v>144</v>
       </c>
+      <c r="B145" t="s">
+        <v>529</v>
+      </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>530</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -9805,11 +12109,14 @@
       <c r="A146">
         <v>145</v>
       </c>
+      <c r="B146" t="s">
+        <v>531</v>
+      </c>
       <c r="C146" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>532</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -9819,11 +12126,14 @@
       <c r="A147">
         <v>146</v>
       </c>
+      <c r="B147" t="s">
+        <v>520</v>
+      </c>
       <c r="C147" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D147" t="s">
-        <v>71</v>
+        <v>533</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -9833,11 +12143,14 @@
       <c r="A148">
         <v>147</v>
       </c>
+      <c r="B148" t="s">
+        <v>534</v>
+      </c>
       <c r="C148" t="s">
-        <v>65</v>
+        <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>72</v>
+        <v>535</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -9847,11 +12160,14 @@
       <c r="A149">
         <v>148</v>
       </c>
+      <c r="B149" t="s">
+        <v>536</v>
+      </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D149" t="s">
-        <v>73</v>
+        <v>537</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -9861,11 +12177,14 @@
       <c r="A150">
         <v>149</v>
       </c>
+      <c r="B150" t="s">
+        <v>525</v>
+      </c>
       <c r="C150" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D150" t="s">
-        <v>74</v>
+        <v>538</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -9875,11 +12194,14 @@
       <c r="A151">
         <v>150</v>
       </c>
+      <c r="B151" t="s">
+        <v>539</v>
+      </c>
       <c r="C151" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>75</v>
+        <v>540</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -9889,11 +12211,14 @@
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="B152" t="s">
+        <v>541</v>
+      </c>
       <c r="C152" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>76</v>
+        <v>542</v>
       </c>
       <c r="E152">
         <v>2</v>
@@ -9903,11 +12228,14 @@
       <c r="A153">
         <v>152</v>
       </c>
+      <c r="B153" t="s">
+        <v>543</v>
+      </c>
       <c r="C153" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -9917,11 +12245,14 @@
       <c r="A154">
         <v>153</v>
       </c>
+      <c r="B154" t="s">
+        <v>545</v>
+      </c>
       <c r="C154" t="s">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -9931,11 +12262,14 @@
       <c r="A155">
         <v>154</v>
       </c>
+      <c r="B155" t="s">
+        <v>510</v>
+      </c>
       <c r="C155" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -9945,11 +12279,14 @@
       <c r="A156">
         <v>155</v>
       </c>
+      <c r="B156" t="s">
+        <v>548</v>
+      </c>
       <c r="C156" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D156" t="s">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -9959,11 +12296,14 @@
       <c r="A157">
         <v>156</v>
       </c>
+      <c r="B157" t="s">
+        <v>550</v>
+      </c>
       <c r="C157" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>82</v>
+        <v>551</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -9973,11 +12313,14 @@
       <c r="A158">
         <v>157</v>
       </c>
+      <c r="B158" t="s">
+        <v>552</v>
+      </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D158" t="s">
-        <v>83</v>
+        <v>553</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -9987,11 +12330,14 @@
       <c r="A159">
         <v>158</v>
       </c>
+      <c r="B159" t="s">
+        <v>554</v>
+      </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D159" t="s">
-        <v>54</v>
+        <v>555</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -10001,11 +12347,14 @@
       <c r="A160">
         <v>159</v>
       </c>
+      <c r="B160" t="s">
+        <v>556</v>
+      </c>
       <c r="C160" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>55</v>
+        <v>557</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -10015,11 +12364,14 @@
       <c r="A161">
         <v>160</v>
       </c>
+      <c r="B161" t="s">
+        <v>558</v>
+      </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>559</v>
       </c>
       <c r="D161" t="s">
-        <v>57</v>
+        <v>560</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -10029,11 +12381,14 @@
       <c r="A162">
         <v>161</v>
       </c>
+      <c r="B162" t="s">
+        <v>561</v>
+      </c>
       <c r="C162" t="s">
-        <v>58</v>
+        <v>475</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>562</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -10043,11 +12398,14 @@
       <c r="A163">
         <v>162</v>
       </c>
+      <c r="B163" t="s">
+        <v>563</v>
+      </c>
       <c r="C163" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="D163" t="s">
-        <v>60</v>
+        <v>564</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -10057,11 +12415,14 @@
       <c r="A164">
         <v>163</v>
       </c>
+      <c r="B164" t="s">
+        <v>565</v>
+      </c>
       <c r="C164" t="s">
-        <v>61</v>
+        <v>475</v>
       </c>
       <c r="D164" t="s">
-        <v>62</v>
+        <v>476</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -10071,11 +12432,14 @@
       <c r="A165">
         <v>164</v>
       </c>
+      <c r="B165" t="s">
+        <v>566</v>
+      </c>
       <c r="C165" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D165" t="s">
-        <v>64</v>
+        <v>478</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -10085,11 +12449,14 @@
       <c r="A166">
         <v>165</v>
       </c>
+      <c r="B166" t="s">
+        <v>567</v>
+      </c>
       <c r="C166" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>568</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -10099,11 +12466,14 @@
       <c r="A167">
         <v>166</v>
       </c>
+      <c r="B167" t="s">
+        <v>569</v>
+      </c>
       <c r="C167" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="D167" t="s">
-        <v>67</v>
+        <v>570</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -10113,11 +12483,14 @@
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="B168" t="s">
+        <v>561</v>
+      </c>
       <c r="C168" t="s">
-        <v>65</v>
+        <v>475</v>
       </c>
       <c r="D168" t="s">
-        <v>68</v>
+        <v>571</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -10127,11 +12500,14 @@
       <c r="A169">
         <v>168</v>
       </c>
+      <c r="B169" t="s">
+        <v>572</v>
+      </c>
       <c r="C169" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D169" t="s">
-        <v>69</v>
+        <v>573</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -10141,11 +12517,14 @@
       <c r="A170">
         <v>169</v>
       </c>
+      <c r="B170" t="s">
+        <v>574</v>
+      </c>
       <c r="C170" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>575</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -10155,11 +12534,14 @@
       <c r="A171">
         <v>170</v>
       </c>
+      <c r="B171" t="s">
+        <v>472</v>
+      </c>
       <c r="C171" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D171" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -10169,11 +12551,14 @@
       <c r="A172">
         <v>171</v>
       </c>
+      <c r="B172" t="s">
+        <v>474</v>
+      </c>
       <c r="C172" t="s">
-        <v>65</v>
+        <v>475</v>
       </c>
       <c r="D172" t="s">
-        <v>72</v>
+        <v>476</v>
       </c>
       <c r="E172">
         <v>2</v>
@@ -10183,11 +12568,14 @@
       <c r="A173">
         <v>172</v>
       </c>
+      <c r="B173" t="s">
+        <v>477</v>
+      </c>
       <c r="C173" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D173" t="s">
-        <v>73</v>
+        <v>478</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -10197,11 +12585,14 @@
       <c r="A174">
         <v>173</v>
       </c>
+      <c r="B174" t="s">
+        <v>479</v>
+      </c>
       <c r="C174" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D174" t="s">
-        <v>74</v>
+        <v>468</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -10211,11 +12602,14 @@
       <c r="A175">
         <v>174</v>
       </c>
+      <c r="B175" t="s">
+        <v>480</v>
+      </c>
       <c r="C175" t="s">
-        <v>65</v>
+        <v>464</v>
       </c>
       <c r="D175" t="s">
-        <v>75</v>
+        <v>465</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -10225,11 +12619,14 @@
       <c r="A176">
         <v>175</v>
       </c>
+      <c r="B176" t="s">
+        <v>481</v>
+      </c>
       <c r="C176" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D176" t="s">
-        <v>76</v>
+        <v>471</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -10239,11 +12636,14 @@
       <c r="A177">
         <v>176</v>
       </c>
+      <c r="B177" t="s">
+        <v>576</v>
+      </c>
       <c r="C177" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D177" t="s">
-        <v>77</v>
+        <v>577</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -10253,11 +12653,14 @@
       <c r="A178">
         <v>177</v>
       </c>
+      <c r="B178" t="s">
+        <v>578</v>
+      </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -10267,11 +12670,14 @@
       <c r="A179">
         <v>178</v>
       </c>
+      <c r="B179" t="s">
+        <v>580</v>
+      </c>
       <c r="C179" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D179" t="s">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -10281,11 +12687,14 @@
       <c r="A180">
         <v>179</v>
       </c>
+      <c r="B180" t="s">
+        <v>582</v>
+      </c>
       <c r="C180" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D180" t="s">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -10295,11 +12704,14 @@
       <c r="A181">
         <v>180</v>
       </c>
+      <c r="B181" t="s">
+        <v>584</v>
+      </c>
       <c r="C181" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D181" t="s">
-        <v>82</v>
+        <v>585</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -10309,11 +12721,14 @@
       <c r="A182">
         <v>181</v>
       </c>
+      <c r="B182" t="s">
+        <v>586</v>
+      </c>
       <c r="C182" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D182" t="s">
-        <v>83</v>
+        <v>587</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -10323,11 +12738,14 @@
       <c r="A183">
         <v>182</v>
       </c>
+      <c r="B183" t="s">
+        <v>588</v>
+      </c>
       <c r="C183" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>54</v>
+        <v>589</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -10337,11 +12755,14 @@
       <c r="A184">
         <v>183</v>
       </c>
+      <c r="B184" t="s">
+        <v>590</v>
+      </c>
       <c r="C184" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D184" t="s">
-        <v>55</v>
+        <v>591</v>
       </c>
       <c r="E184">
         <v>2</v>
@@ -10351,11 +12772,14 @@
       <c r="A185">
         <v>184</v>
       </c>
+      <c r="B185" t="s">
+        <v>592</v>
+      </c>
       <c r="C185" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D185" t="s">
-        <v>57</v>
+        <v>593</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -10365,11 +12789,14 @@
       <c r="A186">
         <v>185</v>
       </c>
+      <c r="B186" t="s">
+        <v>594</v>
+      </c>
       <c r="C186" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="D186" t="s">
-        <v>59</v>
+        <v>595</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -10379,11 +12806,14 @@
       <c r="A187">
         <v>186</v>
       </c>
+      <c r="B187" t="s">
+        <v>596</v>
+      </c>
       <c r="C187" t="s">
-        <v>56</v>
+        <v>475</v>
       </c>
       <c r="D187" t="s">
-        <v>60</v>
+        <v>597</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -10393,11 +12823,14 @@
       <c r="A188">
         <v>187</v>
       </c>
+      <c r="B188" t="s">
+        <v>541</v>
+      </c>
       <c r="C188" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D188" t="s">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -10407,11 +12840,14 @@
       <c r="A189">
         <v>188</v>
       </c>
+      <c r="B189" t="s">
+        <v>599</v>
+      </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>467</v>
       </c>
       <c r="D189" t="s">
-        <v>64</v>
+        <v>600</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -10421,11 +12857,14 @@
       <c r="A190">
         <v>189</v>
       </c>
+      <c r="B190" t="s">
+        <v>601</v>
+      </c>
       <c r="C190" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D190" t="s">
-        <v>66</v>
+        <v>602</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -10435,11 +12874,14 @@
       <c r="A191">
         <v>190</v>
       </c>
+      <c r="B191" t="s">
+        <v>603</v>
+      </c>
       <c r="C191" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="D191" t="s">
-        <v>67</v>
+        <v>604</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -10449,11 +12891,14 @@
       <c r="A192">
         <v>191</v>
       </c>
+      <c r="B192" t="s">
+        <v>605</v>
+      </c>
       <c r="C192" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D192" t="s">
-        <v>68</v>
+        <v>606</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -10463,11 +12908,14 @@
       <c r="A193">
         <v>192</v>
       </c>
+      <c r="B193" t="s">
+        <v>607</v>
+      </c>
       <c r="C193" t="s">
-        <v>58</v>
+        <v>608</v>
       </c>
       <c r="D193" t="s">
-        <v>69</v>
+        <v>609</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -10477,11 +12925,14 @@
       <c r="A194">
         <v>193</v>
       </c>
+      <c r="B194" t="s">
+        <v>610</v>
+      </c>
       <c r="C194" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D194" t="s">
-        <v>70</v>
+        <v>611</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -10491,11 +12942,14 @@
       <c r="A195">
         <v>194</v>
       </c>
+      <c r="B195" t="s">
+        <v>612</v>
+      </c>
       <c r="C195" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D195" t="s">
-        <v>71</v>
+        <v>613</v>
       </c>
       <c r="E195">
         <v>2</v>
@@ -10505,11 +12959,14 @@
       <c r="A196">
         <v>195</v>
       </c>
+      <c r="B196" t="s">
+        <v>614</v>
+      </c>
       <c r="C196" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D196" t="s">
-        <v>72</v>
+        <v>615</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -10519,11 +12976,14 @@
       <c r="A197">
         <v>196</v>
       </c>
+      <c r="B197" t="s">
+        <v>616</v>
+      </c>
       <c r="C197" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D197" t="s">
-        <v>73</v>
+        <v>617</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -10533,11 +12993,14 @@
       <c r="A198">
         <v>197</v>
       </c>
+      <c r="B198" t="s">
+        <v>618</v>
+      </c>
       <c r="C198" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D198" t="s">
-        <v>74</v>
+        <v>619</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -10547,11 +13010,14 @@
       <c r="A199">
         <v>198</v>
       </c>
+      <c r="B199" t="s">
+        <v>620</v>
+      </c>
       <c r="C199" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
       <c r="D199" t="s">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -10561,11 +13027,14 @@
       <c r="A200">
         <v>199</v>
       </c>
+      <c r="B200" t="s">
+        <v>622</v>
+      </c>
       <c r="C200" t="s">
-        <v>53</v>
+        <v>499</v>
       </c>
       <c r="D200" t="s">
-        <v>76</v>
+        <v>623</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -10575,11 +13044,14 @@
       <c r="A201">
         <v>200</v>
       </c>
+      <c r="B201" t="s">
+        <v>624</v>
+      </c>
       <c r="C201" t="s">
-        <v>65</v>
+        <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -10589,11 +13061,14 @@
       <c r="A202">
         <v>201</v>
       </c>
+      <c r="B202" t="s">
+        <v>626</v>
+      </c>
       <c r="C202" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D202" t="s">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -10603,11 +13078,14 @@
       <c r="A203">
         <v>202</v>
       </c>
+      <c r="B203" t="s">
+        <v>628</v>
+      </c>
       <c r="C203" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="D203" t="s">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -10617,11 +13095,14 @@
       <c r="A204">
         <v>203</v>
       </c>
+      <c r="B204" t="s">
+        <v>630</v>
+      </c>
       <c r="C204" t="s">
-        <v>58</v>
+        <v>475</v>
       </c>
       <c r="D204" t="s">
-        <v>81</v>
+        <v>631</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -10631,11 +13112,14 @@
       <c r="A205">
         <v>204</v>
       </c>
+      <c r="B205" t="s">
+        <v>632</v>
+      </c>
       <c r="C205" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D205" t="s">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -10645,11 +13129,14 @@
       <c r="A206">
         <v>205</v>
       </c>
+      <c r="B206" t="s">
+        <v>634</v>
+      </c>
       <c r="C206" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D206" t="s">
-        <v>83</v>
+        <v>635</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -10660,16 +13147,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>168</v>
+        <v>636</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>467</v>
       </c>
       <c r="D207" t="s">
-        <v>169</v>
+        <v>637</v>
       </c>
       <c r="E207">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -10677,16 +13164,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>170</v>
+        <v>638</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D208" t="s">
-        <v>171</v>
+        <v>639</v>
       </c>
       <c r="E208">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -10694,16 +13181,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>172</v>
+        <v>640</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D209" t="s">
-        <v>86</v>
+        <v>641</v>
       </c>
       <c r="E209">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -10711,16 +13198,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>173</v>
+        <v>642</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>643</v>
       </c>
       <c r="D210" t="s">
-        <v>169</v>
+        <v>644</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -10728,16 +13215,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>174</v>
+        <v>645</v>
       </c>
       <c r="C211" t="s">
-        <v>38</v>
+        <v>646</v>
       </c>
       <c r="D211" t="s">
-        <v>175</v>
+        <v>647</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -10745,16 +13232,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>176</v>
+        <v>648</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D212" t="s">
-        <v>86</v>
+        <v>649</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -10762,16 +13249,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>173</v>
+        <v>650</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>475</v>
       </c>
       <c r="D213" t="s">
-        <v>169</v>
+        <v>651</v>
       </c>
       <c r="E213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -10779,16 +13266,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>174</v>
+        <v>541</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D214" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -10796,16 +13283,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>653</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>467</v>
       </c>
       <c r="D215" t="s">
-        <v>84</v>
+        <v>654</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -10813,16 +13300,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>178</v>
+        <v>655</v>
       </c>
       <c r="C216" t="s">
-        <v>47</v>
+        <v>467</v>
       </c>
       <c r="D216" t="s">
-        <v>179</v>
+        <v>656</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -10830,16 +13317,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>180</v>
+        <v>657</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>658</v>
       </c>
       <c r="D217" t="s">
-        <v>175</v>
+        <v>659</v>
       </c>
       <c r="E217">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -10847,16 +13334,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>181</v>
+        <v>660</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -10864,16 +13351,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>182</v>
+        <v>662</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>523</v>
       </c>
       <c r="D219" t="s">
-        <v>84</v>
+        <v>663</v>
       </c>
       <c r="E219">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -10881,16 +13368,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>183</v>
+        <v>664</v>
       </c>
       <c r="C220" t="s">
-        <v>39</v>
+        <v>467</v>
       </c>
       <c r="D220" t="s">
-        <v>88</v>
+        <v>665</v>
       </c>
       <c r="E220">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -10898,16 +13385,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>184</v>
+        <v>653</v>
       </c>
       <c r="C221" t="s">
-        <v>37</v>
+        <v>467</v>
       </c>
       <c r="D221" t="s">
-        <v>117</v>
+        <v>666</v>
       </c>
       <c r="E221">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -10915,16 +13402,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>185</v>
+        <v>520</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>467</v>
       </c>
       <c r="D222" t="s">
-        <v>186</v>
+        <v>667</v>
       </c>
       <c r="E222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -10932,13 +13419,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C223" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D223" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E223">
         <v>3</v>
@@ -10949,13 +13436,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D224" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="E224">
         <v>3</v>
@@ -10966,13 +13453,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C225" t="s">
         <v>36</v>
       </c>
       <c r="D225" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E225">
         <v>3</v>
@@ -10983,13 +13470,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D226" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -11000,13 +13487,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D227" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="E227">
         <v>3</v>
@@ -11017,13 +13504,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D228" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E228">
         <v>3</v>
@@ -11034,13 +13521,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C229" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D229" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="E229">
         <v>3</v>
@@ -11051,13 +13538,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D230" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E230">
         <v>3</v>
@@ -11068,13 +13555,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C231" t="s">
         <v>36</v>
       </c>
       <c r="D231" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E231">
         <v>3</v>
@@ -11085,13 +13572,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C232" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D232" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -11102,13 +13589,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D233" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="E233">
         <v>3</v>
@@ -11119,13 +13606,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C234" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E234">
         <v>3</v>
@@ -11136,13 +13623,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D235" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -11153,13 +13640,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D236" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="E236">
         <v>3</v>
@@ -11170,13 +13657,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C237" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D237" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -11187,13 +13674,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C238" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D238" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="E238">
         <v>3</v>
@@ -11204,13 +13691,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C239" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D239" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E239">
         <v>3</v>
@@ -11221,13 +13708,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C240" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D240" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E240">
         <v>3</v>
@@ -11238,13 +13725,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C241" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D241" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="E241">
         <v>3</v>
@@ -11255,13 +13742,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C242" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D242" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E242">
         <v>3</v>
@@ -11272,13 +13759,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C243" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E243">
         <v>3</v>
@@ -11289,13 +13776,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C244" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="E244">
         <v>3</v>
@@ -11306,13 +13793,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C245" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="E245">
         <v>3</v>
@@ -11323,13 +13810,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C246" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D246" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -11340,13 +13827,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C247" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D247" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E247">
         <v>3</v>
@@ -11357,13 +13844,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C248" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D248" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E248">
         <v>3</v>
@@ -11374,13 +13861,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D249" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -11391,13 +13878,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C250" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D250" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="E250">
         <v>3</v>
@@ -11408,13 +13895,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D251" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -11425,13 +13912,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C252" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D252" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E252">
         <v>3</v>
@@ -11442,13 +13929,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C253" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D253" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E253">
         <v>3</v>
@@ -11459,13 +13946,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D254" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E254">
         <v>3</v>
@@ -11482,7 +13969,7 @@
         <v>36</v>
       </c>
       <c r="D255" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E255">
         <v>3</v>
@@ -11493,13 +13980,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C256" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D256" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -11510,13 +13997,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="C257" t="s">
         <v>38</v>
       </c>
       <c r="D257" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="E257">
         <v>3</v>
@@ -11527,13 +14014,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="C258" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D258" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E258">
         <v>3</v>
@@ -11544,13 +14031,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C259" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -11561,13 +14048,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="C260" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D260" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E260">
         <v>3</v>
@@ -11578,13 +14065,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D261" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -11595,13 +14082,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D262" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E262">
         <v>3</v>
@@ -11612,13 +14099,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C263" t="s">
         <v>38</v>
       </c>
       <c r="D263" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="E263">
         <v>3</v>
@@ -11629,13 +14116,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C264" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D264" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E264">
         <v>3</v>
@@ -11646,13 +14133,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C265" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D265" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E265">
         <v>3</v>
@@ -11663,13 +14150,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C266" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D266" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="E266">
         <v>3</v>
@@ -11680,13 +14167,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C267" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D267" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E267">
         <v>3</v>
@@ -11697,13 +14184,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C268" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D268" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E268">
         <v>3</v>
@@ -11714,13 +14201,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C269" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D269" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -11731,13 +14218,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C270" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D270" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E270">
         <v>3</v>
@@ -11748,13 +14235,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D271" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E271">
         <v>3</v>
@@ -11765,13 +14252,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="C272" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D272" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E272">
         <v>3</v>
@@ -11782,13 +14269,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="C273" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D273" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="E273">
         <v>3</v>
@@ -11799,13 +14286,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C274" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D274" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E274">
         <v>3</v>
@@ -11816,13 +14303,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C275" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D275" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="E275">
         <v>3</v>
@@ -11833,13 +14320,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="C276" t="s">
         <v>38</v>
       </c>
       <c r="D276" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E276">
         <v>3</v>
@@ -11850,13 +14337,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="C277" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D277" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E277">
         <v>3</v>
@@ -11867,13 +14354,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C278" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D278" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -11884,13 +14371,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C279" t="s">
         <v>38</v>
       </c>
       <c r="D279" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="E279">
         <v>3</v>
@@ -11901,13 +14388,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C280" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D280" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E280">
         <v>3</v>
@@ -11918,13 +14405,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C281" t="s">
         <v>36</v>
       </c>
       <c r="D281" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="E281">
         <v>3</v>
@@ -11935,13 +14422,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C282" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D282" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E282">
         <v>3</v>
@@ -11952,13 +14439,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C283" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D283" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E283">
         <v>3</v>
@@ -11969,13 +14456,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C284" t="s">
         <v>37</v>
       </c>
       <c r="D284" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E284">
         <v>3</v>
@@ -11986,13 +14473,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C285" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D285" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="E285">
         <v>3</v>
@@ -12003,13 +14490,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C286" t="s">
         <v>37</v>
       </c>
       <c r="D286" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -12020,13 +14507,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C287" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D287" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E287">
         <v>3</v>
@@ -12037,13 +14524,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C288" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D288" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E288">
         <v>3</v>
@@ -12054,13 +14541,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C289" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D289" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E289">
         <v>3</v>
@@ -12071,13 +14558,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C290" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D290" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E290">
         <v>3</v>
@@ -12088,13 +14575,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="C291" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D291" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E291">
         <v>3</v>
@@ -12105,13 +14592,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C292" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D292" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E292">
         <v>3</v>
@@ -12122,13 +14609,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C293" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D293" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E293">
         <v>3</v>
@@ -12139,13 +14626,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C294" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D294" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -12156,13 +14643,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C295" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D295" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E295">
         <v>3</v>
@@ -12173,13 +14660,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C296" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D296" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E296">
         <v>3</v>
@@ -12190,13 +14677,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C297" t="s">
         <v>36</v>
       </c>
       <c r="D297" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="E297">
         <v>3</v>
@@ -12207,13 +14694,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C298" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D298" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E298">
         <v>3</v>
@@ -12224,13 +14711,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C299" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D299" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="E299">
         <v>3</v>
@@ -12241,13 +14728,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C300" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D300" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E300">
         <v>3</v>
@@ -12258,13 +14745,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D301" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -12275,13 +14762,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="C302" t="s">
         <v>37</v>
       </c>
       <c r="D302" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E302">
         <v>3</v>
@@ -12292,13 +14779,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C303" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D303" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E303">
         <v>3</v>
@@ -12309,13 +14796,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C304" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D304" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E304">
         <v>3</v>
@@ -12326,13 +14813,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C305" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D305" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E305">
         <v>3</v>
@@ -12343,13 +14830,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C306" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D306" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E306">
         <v>3</v>
@@ -12360,15 +14847,287 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>248</v>
+      </c>
+      <c r="C307" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" t="s">
+        <v>141</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>249</v>
+      </c>
+      <c r="C308" t="s">
+        <v>40</v>
+      </c>
+      <c r="D308" t="s">
+        <v>142</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>225</v>
+      </c>
+      <c r="C309" t="s">
+        <v>36</v>
+      </c>
+      <c r="D309" t="s">
+        <v>123</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>250</v>
+      </c>
+      <c r="C310" t="s">
+        <v>36</v>
+      </c>
+      <c r="D310" t="s">
+        <v>143</v>
+      </c>
+      <c r="E310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>251</v>
+      </c>
+      <c r="C311" t="s">
+        <v>42</v>
+      </c>
+      <c r="D311" t="s">
+        <v>144</v>
+      </c>
+      <c r="E311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>252</v>
+      </c>
+      <c r="C312" t="s">
+        <v>37</v>
+      </c>
+      <c r="D312" t="s">
+        <v>145</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>232</v>
+      </c>
+      <c r="C313" t="s">
+        <v>36</v>
+      </c>
+      <c r="D313" t="s">
+        <v>146</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>253</v>
+      </c>
+      <c r="C314" t="s">
+        <v>41</v>
+      </c>
+      <c r="D314" t="s">
+        <v>147</v>
+      </c>
+      <c r="E314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>220</v>
+      </c>
+      <c r="C315" t="s">
+        <v>36</v>
+      </c>
+      <c r="D315" t="s">
+        <v>148</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>254</v>
+      </c>
+      <c r="C316" t="s">
+        <v>49</v>
+      </c>
+      <c r="D316" t="s">
+        <v>149</v>
+      </c>
+      <c r="E316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>255</v>
+      </c>
+      <c r="C317" t="s">
+        <v>49</v>
+      </c>
+      <c r="D317" t="s">
+        <v>150</v>
+      </c>
+      <c r="E317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>194</v>
+      </c>
+      <c r="C318" t="s">
+        <v>37</v>
+      </c>
+      <c r="D318" t="s">
+        <v>151</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>256</v>
+      </c>
+      <c r="C319" t="s">
+        <v>42</v>
+      </c>
+      <c r="D319" t="s">
+        <v>152</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>257</v>
+      </c>
+      <c r="C320" t="s">
+        <v>50</v>
+      </c>
+      <c r="D320" t="s">
+        <v>153</v>
+      </c>
+      <c r="E320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>258</v>
+      </c>
+      <c r="C321" t="s">
+        <v>38</v>
+      </c>
+      <c r="D321" t="s">
+        <v>154</v>
+      </c>
+      <c r="E321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>205</v>
+      </c>
+      <c r="C322" t="s">
+        <v>36</v>
+      </c>
+      <c r="D322" t="s">
+        <v>155</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
         <v>226</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C323" t="s">
         <v>37</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D323" t="s">
         <v>259</v>
       </c>
-      <c r="E307">
+      <c r="E323">
         <v>3</v>
       </c>
     </row>
